--- a/data/datasets/数据单元.xlsx
+++ b/data/datasets/数据单元.xlsx
@@ -1,277 +1,250 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D0631D7-E526-46E8-9A79-6191B80F2DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
-    <sheet name="2" sheetId="2" r:id="rId2"/>
-    <sheet name="3" sheetId="3" r:id="rId3"/>
-    <sheet name="4" sheetId="4" r:id="rId4"/>
-    <sheet name="5" sheetId="5" r:id="rId5"/>
-    <sheet name="6" sheetId="6" r:id="rId6"/>
-    <sheet name="7" sheetId="7" r:id="rId7"/>
-    <sheet name="8" sheetId="8" r:id="rId8"/>
-    <sheet name="9" sheetId="9" r:id="rId9"/>
-    <sheet name="10" sheetId="10" r:id="rId10"/>
-    <sheet name="11" sheetId="11" r:id="rId11"/>
-    <sheet name="12" sheetId="12" r:id="rId12"/>
-    <sheet name="13" sheetId="13" r:id="rId13"/>
-    <sheet name="14" sheetId="14" r:id="rId14"/>
-    <sheet name="15" sheetId="15" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="12" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_平滑处理" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="2">
-  <si>
-    <t>实际值</t>
-  </si>
-  <si>
-    <t>年份</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="major"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
+      <color theme="0"/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="2"/>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FFFF0000"/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color indexed="8"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -318,19 +291,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -341,19 +314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -364,19 +337,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="6" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -387,19 +360,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="7" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -410,19 +383,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
+        <fgColor theme="8" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -433,19 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.7999816888943144"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.5999938962981048"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.3999755851924192"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -481,7 +454,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
+        <color theme="4" tint="0.3999755851924192"/>
       </bottom>
       <diagonal/>
     </border>
@@ -567,234 +540,297 @@
     </border>
   </borders>
   <cellStyleXfs count="43">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="42"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="24" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="标题" xfId="1" builtinId="15"/>
+    <cellStyle name="标题 1" xfId="2" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="3" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="4" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="5" builtinId="19"/>
+    <cellStyle name="好" xfId="6" builtinId="26"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="适中" xfId="8" builtinId="28"/>
+    <cellStyle name="输入" xfId="9" builtinId="20"/>
+    <cellStyle name="输出" xfId="10" builtinId="21"/>
+    <cellStyle name="计算" xfId="11" builtinId="22"/>
+    <cellStyle name="链接单元格" xfId="12" builtinId="24"/>
+    <cellStyle name="检查单元格" xfId="13" builtinId="23"/>
+    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
+    <cellStyle name="汇总" xfId="17" builtinId="25"/>
+    <cellStyle name="着色 1" xfId="18" builtinId="29"/>
+    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30"/>
+    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31"/>
+    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="着色 2" xfId="22" builtinId="33"/>
+    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34"/>
+    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35"/>
+    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36"/>
+    <cellStyle name="着色 3" xfId="26" builtinId="37"/>
+    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38"/>
+    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39"/>
+    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40"/>
+    <cellStyle name="着色 4" xfId="30" builtinId="41"/>
+    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42"/>
+    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43"/>
+    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44"/>
+    <cellStyle name="着色 5" xfId="34" builtinId="45"/>
+    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46"/>
+    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47"/>
+    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48"/>
+    <cellStyle name="着色 6" xfId="38" builtinId="49"/>
+    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50"/>
+    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="42"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1118,7 +1154,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1128,536 +1168,543 @@
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1962</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>1963</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>1291</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>1964</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>2675</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1965</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>27087</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>1966</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>5936</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>1967</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>5124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>1968</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>15132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>1969</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>1970</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>10272</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>1971</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>12288</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>1972</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>2783</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>1973</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>3052</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>1974</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>14990</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>1975</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>14564</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>1976</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>10183</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>1977</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>10801</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>1978</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>3983</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>1979</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>5895</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>1980</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>7354</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>1981</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>13261</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>1982</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>11317</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>1983</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>23791</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>1984</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>47160</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>1985</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>25454</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>24752</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>14064</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>13264</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>13251</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>12176</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>11121</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>11433</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>12413</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>15293</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>15068</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>12547</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>18517</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>14557</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>22000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>19785</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>21386</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>22136</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>25054</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>37362</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>21645.53</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>16950.23</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>24698.38</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>29262.97</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>27978.47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>23965.61</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>25788.71</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>25921.47</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>20439.46</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>15695.47</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>18584.21</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>16288.2</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>21302.29</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>21780.14</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>21471.58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>21149.58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>16000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>20000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1667,416 +1714,423 @@
       <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1977</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1977</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" ht="14.25" customHeight="1" s="15">
+      <c r="A3" s="0" t="n">
         <v>1978</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" ht="14.25" customHeight="1" s="15">
+      <c r="A4" s="0" t="n">
         <v>1979</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>509</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" ht="14.25" customHeight="1" s="15">
+      <c r="A5" s="0" t="n">
         <v>1980</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" ht="14.25" customHeight="1" s="15">
+      <c r="A6" s="0" t="n">
         <v>1981</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="15">
+      <c r="A7" s="0" t="n">
         <v>1982</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" s="15">
+      <c r="A8" s="0" t="n">
         <v>1983</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="B8" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" s="15">
+      <c r="A9" s="0" t="n">
         <v>1984</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>723</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" ht="14.25" customHeight="1" s="15">
+      <c r="A10" s="0" t="n">
         <v>1985</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>520</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" ht="14.25" customHeight="1" s="15">
+      <c r="A11" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>570</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" ht="14.25" customHeight="1" s="15">
+      <c r="A12" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" ht="14.25" customHeight="1" s="15">
+      <c r="A13" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>771</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" ht="14.25" customHeight="1" s="15">
+      <c r="A14" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>509</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" ht="14.25" customHeight="1" s="15">
+      <c r="A15" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>516</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16" ht="14.25" customHeight="1" s="15">
+      <c r="A16" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>318</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" ht="14.25" customHeight="1" s="15">
+      <c r="A17" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>576</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" ht="14.25" customHeight="1" s="15">
+      <c r="A18" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>702</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" ht="14.25" customHeight="1" s="15">
+      <c r="A19" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>1168</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" ht="14.25" customHeight="1" s="15">
+      <c r="A20" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>1128</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" ht="14.25" customHeight="1" s="15">
+      <c r="A21" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>1456</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22" ht="14.25" customHeight="1" s="15">
+      <c r="A22" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>1413</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" ht="14.25" customHeight="1" s="15">
+      <c r="A23" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>1520</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" ht="14.25" customHeight="1" s="15">
+      <c r="A24" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>1560</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" ht="14.25" customHeight="1" s="15">
+      <c r="A25" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>1303</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" ht="14.25" customHeight="1" s="15">
+      <c r="A26" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>1191</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27" ht="14.25" customHeight="1" s="15">
+      <c r="A27" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>1330</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28" ht="14.25" customHeight="1" s="15">
+      <c r="A28" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>1159</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29" ht="14.25" customHeight="1" s="15">
+      <c r="A29" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>1230</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30" ht="14.25" customHeight="1" s="15">
+      <c r="A30" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B30" s="2">
-        <v>1148.1400000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="B30" s="2" t="n">
+        <v>1148.14</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" s="15">
+      <c r="A31" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>1439.79</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32" ht="14.25" customHeight="1" s="15">
+      <c r="A32" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>1262.3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" ht="14.25" customHeight="1" s="15">
+      <c r="A33" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>1158.28</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34" ht="14.25" customHeight="1" s="15">
+      <c r="A34" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>1399.99</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35" ht="14.25" customHeight="1" s="15">
+      <c r="A35" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="2" t="n">
         <v>1517.93</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36" ht="14.25" customHeight="1" s="15">
+      <c r="A36" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="2" t="n">
         <v>1668.86</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37" ht="14.25" customHeight="1" s="15">
+      <c r="A37" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="7" t="n">
         <v>445.33</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38" ht="14.25" customHeight="1" s="15">
+      <c r="A38" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>564.87</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39" ht="14.25" customHeight="1" s="15">
+      <c r="A39" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>635.53</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40" ht="14.25" customHeight="1" s="15">
+      <c r="A40" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="2" t="n">
         <v>380.53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41" ht="14.25" customHeight="1" s="15">
+      <c r="A41" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="2" t="n">
         <v>178.68</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42" ht="14.25" customHeight="1" s="15">
+      <c r="A42" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="2" t="n">
         <v>67.8</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43" ht="14.25" customHeight="1" s="15">
+      <c r="A43" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="2" t="n">
         <v>67.8</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="44" ht="14.25" customHeight="1" s="15">
+      <c r="A44" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="2" t="n">
         <v>216.47</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="45" ht="14.25" customHeight="1" s="15">
+      <c r="A45" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="2" t="n">
         <v>609.28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="46" ht="14.25" customHeight="1" s="15">
+      <c r="A46" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="6" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="47" ht="14.25" customHeight="1" s="15">
+      <c r="A47" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="6" t="n">
         <v>700</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="48" ht="14.25" customHeight="1" s="15">
+      <c r="A48" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="6" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="49" ht="14.25" customHeight="1" s="15">
+      <c r="A49" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="6" t="n">
         <v>700</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="50" ht="14.25" customHeight="1" s="15">
+      <c r="A50" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="6" t="n">
         <v>500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2086,371 +2140,378 @@
       <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1983</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" ht="14.25" customHeight="1" s="15">
+      <c r="A3" s="0" t="n">
         <v>1984</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>268.76</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" ht="14.25" customHeight="1" s="15">
+      <c r="A4" s="0" t="n">
         <v>1985</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" ht="14.25" customHeight="1" s="15">
+      <c r="A5" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" ht="14.25" customHeight="1" s="15">
+      <c r="A6" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="15">
+      <c r="A7" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>631</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" ht="14.25" customHeight="1" s="15">
+      <c r="A8" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>603</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" ht="14.25" customHeight="1" s="15">
+      <c r="A9" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>505</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" ht="14.25" customHeight="1" s="15">
+      <c r="A10" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>445</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" ht="14.25" customHeight="1" s="15">
+      <c r="A11" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" ht="14.25" customHeight="1" s="15">
+      <c r="A12" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" ht="14.25" customHeight="1" s="15">
+      <c r="A13" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>501</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" ht="14.25" customHeight="1" s="15">
+      <c r="A14" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>416</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" ht="14.25" customHeight="1" s="15">
+      <c r="A15" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="2" t="n">
         <v>462</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16" ht="14.25" customHeight="1" s="15">
+      <c r="A16" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="2" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" ht="14.25" customHeight="1" s="15">
+      <c r="A17" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" ht="14.25" customHeight="1" s="15">
+      <c r="A18" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="2" t="n">
         <v>327</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" ht="14.25" customHeight="1" s="15">
+      <c r="A19" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>359</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" ht="14.25" customHeight="1" s="15">
+      <c r="A20" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" ht="14.25" customHeight="1" s="15">
+      <c r="A21" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22" ht="14.25" customHeight="1" s="15">
+      <c r="A22" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>528</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" ht="14.25" customHeight="1" s="15">
+      <c r="A23" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>405</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" ht="14.25" customHeight="1" s="15">
+      <c r="A24" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>254.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" ht="14.25" customHeight="1" s="15">
+      <c r="A25" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>341.02</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" ht="14.25" customHeight="1" s="15">
+      <c r="A26" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>396.99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27" ht="14.25" customHeight="1" s="15">
+      <c r="A27" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="2" t="n">
         <v>424.87</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28" ht="14.25" customHeight="1" s="15">
+      <c r="A28" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>524.27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29" ht="14.25" customHeight="1" s="15">
+      <c r="A29" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>495.31</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30" ht="14.25" customHeight="1" s="15">
+      <c r="A30" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>368.12</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31" ht="14.25" customHeight="1" s="15">
+      <c r="A31" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B31" s="2">
-        <v>513.54999999999995</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="B31" s="2" t="n">
+        <v>513.55</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" s="15">
+      <c r="A32" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B32" s="2">
-        <v>260.08999999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="B32" s="2" t="n">
+        <v>260.09</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" s="15">
+      <c r="A33" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B33" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="B33" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" s="15">
+      <c r="A34" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="2" t="n">
         <v>46.71</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35" ht="14.25" customHeight="1" s="15">
+      <c r="A35" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="B35" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" s="15">
+      <c r="A36" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B36" s="2">
-        <v>128.77000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="B36" s="2" t="n">
+        <v>128.77</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" s="15">
+      <c r="A37" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="B37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" s="15">
+      <c r="A38" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>25.35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39" ht="14.25" customHeight="1" s="15">
+      <c r="A39" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>44.72</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40" ht="14.25" customHeight="1" s="15">
+      <c r="A40" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41" ht="14.25" customHeight="1" s="15">
+      <c r="A41" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="6" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42" ht="14.25" customHeight="1" s="15">
+      <c r="A42" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43" ht="14.25" customHeight="1" s="15">
+      <c r="A43" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="44" ht="14.25" customHeight="1" s="15">
+      <c r="A44" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="6" t="n">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2460,372 +2521,379 @@
       <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1983</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1983</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" ht="14.25" customHeight="1" s="15">
+      <c r="A3" s="0" t="n">
         <v>1984</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>201</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" ht="14.25" customHeight="1" s="15">
+      <c r="A4" s="0" t="n">
         <v>1985</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="n">
         <v>504</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" ht="14.25" customHeight="1" s="15">
+      <c r="A5" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>1630</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" ht="14.25" customHeight="1" s="15">
+      <c r="A6" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="2" t="n">
         <v>922</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" ht="14.25" customHeight="1" s="15">
+      <c r="A7" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="2" t="n">
         <v>1091</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8" ht="14.25" customHeight="1" s="15">
+      <c r="A8" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>949</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" ht="14.25" customHeight="1" s="15">
+      <c r="A9" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>261</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" ht="14.25" customHeight="1" s="15">
+      <c r="A10" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" ht="14.25" customHeight="1" s="15">
+      <c r="A11" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" ht="14.25" customHeight="1" s="15">
+      <c r="A12" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" ht="14.25" customHeight="1" s="15">
+      <c r="A13" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>310</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" ht="14.25" customHeight="1" s="15">
+      <c r="A14" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>250</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" ht="14.25" customHeight="1" s="15">
+      <c r="A15" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B15" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="B15" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" s="15">
+      <c r="A16" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" s="15">
+      <c r="A17" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="2" t="n">
         <v>298</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" ht="14.25" customHeight="1" s="15">
+      <c r="A18" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="B18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" s="15">
+      <c r="A19" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="2" t="n">
         <v>1142</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" ht="14.25" customHeight="1" s="15">
+      <c r="A20" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="2" t="n">
         <v>1118</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" ht="14.25" customHeight="1" s="15">
+      <c r="A21" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="2" t="n">
         <v>1243</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22" ht="14.25" customHeight="1" s="15">
+      <c r="A22" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="2" t="n">
         <v>1132</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23" ht="14.25" customHeight="1" s="15">
+      <c r="A23" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="2" t="n">
         <v>1280</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" ht="14.25" customHeight="1" s="15">
+      <c r="A24" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>810.77</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" ht="14.25" customHeight="1" s="15">
+      <c r="A25" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>845.53</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" ht="14.25" customHeight="1" s="15">
+      <c r="A26" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="2" t="n">
         <v>828.29</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27" ht="14.25" customHeight="1" s="15">
+      <c r="A27" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B27" s="2">
-        <v>1064.6600000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="B27" s="2" t="n">
+        <v>1064.66</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" s="15">
+      <c r="A28" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B28" s="2">
-        <v>1049.3800000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="B28" s="2" t="n">
+        <v>1049.38</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" s="15">
+      <c r="A29" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="2" t="n">
         <v>1056.83</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30" ht="14.25" customHeight="1" s="15">
+      <c r="A30" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>900.87</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31" ht="14.25" customHeight="1" s="15">
+      <c r="A31" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>1014.36</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32" ht="14.25" customHeight="1" s="15">
+      <c r="A32" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="2" t="n">
         <v>101.53</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" ht="14.25" customHeight="1" s="15">
+      <c r="A33" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B33" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="B33" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" s="15">
+      <c r="A34" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35">
+      <c r="B34" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25" customHeight="1" s="15">
+      <c r="A35" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B35" s="2">
-        <v>77.680000000000007</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36">
+      <c r="B35" s="2" t="n">
+        <v>77.68000000000001</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25" customHeight="1" s="15">
+      <c r="A36" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A37">
+      <c r="B36" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25" customHeight="1" s="15">
+      <c r="A37" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A38">
+      <c r="B37" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25" customHeight="1" s="15">
+      <c r="A38" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="2" t="n">
         <v>238.97</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39" ht="14.25" customHeight="1" s="15">
+      <c r="A39" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="2" t="n">
         <v>329.17</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40" ht="14.25" customHeight="1" s="15">
+      <c r="A40" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B40" s="4">
+      <c r="B40" s="4" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41" ht="14.25" customHeight="1" s="15">
+      <c r="A41" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B41" s="4">
+      <c r="B41" s="4" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42" ht="14.25" customHeight="1" s="15">
+      <c r="A42" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B42" s="4">
+      <c r="B42" s="4" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43" ht="14.25" customHeight="1" s="15">
+      <c r="A43" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B43" s="4" t="n">
         <v>300</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="44" ht="14.25" customHeight="1" s="15">
+      <c r="A44" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B44" s="4">
+      <c r="B44" s="4" t="n">
         <v>400</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2835,308 +2903,315 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="14.25" customHeight="1" s="15">
+      <c r="A2" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1991</v>
-      </c>
-      <c r="B2" s="2">
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B3" s="9" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B4" s="9" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B5" s="9" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B6" s="9" t="n">
+        <v>36.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B7" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B8" s="9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B9" s="9" t="n">
+        <v>10.84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B10" s="9" t="n">
+        <v>14.17</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="9" t="n">
+        <v>13.35</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B12" s="9" t="n">
+        <v>5.06</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B13" s="9" t="n">
+        <v>18.68</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B14" s="10" t="n">
+        <v>23.25</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B15" s="9" t="n">
+        <v>23.82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B16" s="10" t="n">
+        <v>50.14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B17" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B18" s="10" t="n">
+        <v>433.6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B19" s="10" t="n">
+        <v>51.05</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B20" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B21" s="10" t="n">
+        <v>85.98</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B22" s="16" t="n">
+        <v>23.34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B23" s="16" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1992</v>
-      </c>
-      <c r="B3" s="9">
-        <v>11.31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>1993</v>
-      </c>
-      <c r="B4" s="9">
-        <v>0.45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1994</v>
-      </c>
-      <c r="B5" s="9">
-        <v>13.23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>1995</v>
-      </c>
-      <c r="B6" s="9">
-        <v>36.57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>1996</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>1997</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
-        <v>1998</v>
-      </c>
-      <c r="B9" s="9">
-        <v>10.84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
-        <v>1999</v>
-      </c>
-      <c r="B10" s="9">
-        <v>14.17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="9">
-        <v>13.35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
-        <v>2001</v>
-      </c>
-      <c r="B12" s="9">
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
-        <v>2002</v>
-      </c>
-      <c r="B13" s="9">
-        <v>18.68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
-        <v>2003</v>
-      </c>
-      <c r="B14" s="10">
-        <v>23.25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
-        <v>2004</v>
-      </c>
-      <c r="B15" s="9">
-        <v>23.82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
-        <v>2005</v>
-      </c>
-      <c r="B16" s="10">
-        <v>50.14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
-        <v>2006</v>
-      </c>
-      <c r="B17" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
-        <v>2007</v>
-      </c>
-      <c r="B18" s="10">
-        <v>433.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
-        <v>2008</v>
-      </c>
-      <c r="B19" s="10">
-        <v>51.05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
-        <v>2009</v>
-      </c>
-      <c r="B20" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
-        <v>2010</v>
-      </c>
-      <c r="B21" s="10">
-        <v>85.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
-        <v>2011</v>
-      </c>
-      <c r="B22" s="12">
-        <v>23.34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
-        <v>2012</v>
-      </c>
-      <c r="B23" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B24" s="12">
+      <c r="B24" s="16" t="n">
         <v>7.98</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="B25" s="16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="10" t="n">
         <v>51.56</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B27" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="B27" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B28" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="B28" s="10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="10" t="n">
         <v>32.18</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="10" t="n">
         <v>102.52</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B31" s="10">
-        <v>145.63999999999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="B31" s="10" t="n">
+        <v>145.64</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="13" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="13" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="13" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="13" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="13" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3146,284 +3221,291 @@
       <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1989</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" ht="14.25" customHeight="1" s="15">
+      <c r="A3" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>597</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" ht="14.25" customHeight="1" s="15">
+      <c r="A4" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" s="15">
+      <c r="A5" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="B5" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" s="15">
+      <c r="A6" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="15">
+      <c r="A7" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" s="15">
+      <c r="A8" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" ht="14.25" customHeight="1" s="15">
+      <c r="A9" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B9" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="B9" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25" customHeight="1" s="15">
+      <c r="A10" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>547</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" ht="14.25" customHeight="1" s="15">
+      <c r="A11" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="B11" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" s="15">
+      <c r="A12" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="B12" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25" customHeight="1" s="15">
+      <c r="A13" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="B13" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" customHeight="1" s="15">
+      <c r="A14" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" ht="14.25" customHeight="1" s="15">
+      <c r="A15" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="B15" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" s="15">
+      <c r="A16" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="B16" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" customHeight="1" s="15">
+      <c r="A17" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="B17" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" customHeight="1" s="15">
+      <c r="A18" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B18" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="B18" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25" customHeight="1" s="15">
+      <c r="A19" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B19" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="B19" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25" customHeight="1" s="15">
+      <c r="A20" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="B20" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" s="15">
+      <c r="A21" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="B21" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" s="15">
+      <c r="A22" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="B22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" s="15">
+      <c r="A23" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="B23" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25" customHeight="1" s="15">
+      <c r="A24" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="2" t="n">
         <v>228.84</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" ht="14.25" customHeight="1" s="15">
+      <c r="A25" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="2" t="n">
         <v>772.24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" ht="14.25" customHeight="1" s="15">
+      <c r="A26" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B26" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="B26" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" s="15">
+      <c r="A27" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B27" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="B27" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" s="15">
+      <c r="A28" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B28" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="B28" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" s="15">
+      <c r="A29" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B29" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="B29" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" s="15">
+      <c r="A30" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B30" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="B30" s="8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25" customHeight="1" s="15">
+      <c r="A31" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="2" t="n">
         <v>387.94</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32" ht="14.25" customHeight="1" s="15">
+      <c r="A32" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B32" s="2">
-        <v>304.04000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="B32" s="2" t="n">
+        <v>304.04</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25" customHeight="1" s="15">
+      <c r="A33" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="2" t="n">
         <v>195.64</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3433,324 +3515,674 @@
       <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1989</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="n">
         <v>170.51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="B5" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="B7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="1" t="n">
         <v>112.06</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="B9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="1" t="n">
         <v>19.28</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="1" t="n">
         <v>172.25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="B12" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="1" t="n">
         <v>367.96</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="1" t="n">
         <v>191.11</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="B15" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="B16" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="B17" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="B18" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="B19" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B20" s="1">
-        <v>40.020000000000003</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="B20" s="1" t="n">
+        <v>40.02</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="B21" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="B22" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+      <c r="B23" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B24" s="1">
-        <v>304.70999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="B24" s="1" t="n">
+        <v>304.71</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="1" t="n">
         <v>467.73</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="B26" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B27" s="1">
-        <v>2098.8200000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="B27" s="1" t="n">
+        <v>2098.82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="1" t="n">
         <v>2133.06</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="B29" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="B30" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B31" s="1">
-        <v>88.76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="B31" s="1" t="n">
+        <v>88.76000000000001</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="1" t="n">
         <v>59.3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B33" s="1">
-        <v>9.11</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="B33" s="1" t="n">
+        <v>9.109999999999999</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="14" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B35" s="14">
+      <c r="B35" s="14" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B36" s="14">
+      <c r="B36" s="14" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B37" s="14">
+      <c r="B37" s="14" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="14" t="n">
         <v>50</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.361377405853548</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1988</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7.27574625763329</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1989</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12.78722253235772</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1990</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.368987049549232</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B6" t="n">
+        <v>8.603309627443474</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B7" t="n">
+        <v>34.48834198123256</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1993</v>
+      </c>
+      <c r="B8" t="n">
+        <v>17.75341397288843</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1994</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56.64649259753239</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1995</v>
+      </c>
+      <c r="B10" t="n">
+        <v>30.84260219333607</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1996</v>
+      </c>
+      <c r="B11" t="n">
+        <v>119.705570557399</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1997</v>
+      </c>
+      <c r="B12" t="n">
+        <v>37.36503110935236</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1998</v>
+      </c>
+      <c r="B13" t="n">
+        <v>54.22782310383855</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>184.4251497381987</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B15" t="n">
+        <v>157.9588234831488</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B16" t="n">
+        <v>132.7417076686659</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B17" t="n">
+        <v>161.182497801985</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B18" t="n">
+        <v>298.7259008814832</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1167.139104927683</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1514.087032491979</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1141.862449417101</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B22" t="n">
+        <v>451.9672515638709</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B23" t="n">
+        <v>491.9077288627026</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1167.17876920563</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B25" t="n">
+        <v>342.5040509599415</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1802.031867210248</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2704.065573045329</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B28" t="n">
+        <v>711.3952495373547</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B29" t="n">
+        <v>168.1204454860728</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B30" t="n">
+        <v>38.08508052240384</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B31" t="n">
+        <v>76.76521909645474</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B32" t="n">
+        <v>45.97919676706215</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B33" t="n">
+        <v>326.121273367681</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B34" t="n">
+        <v>888.7619513798154</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1143.944549472441</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B36" t="n">
+        <v>852.9637295590607</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B37" t="n">
+        <v>626.8069004686902</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B38" t="n">
+        <v>642.0301170348661</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B39" t="n">
+        <v>644.0863403475652</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B40" t="n">
+        <v>602.2761213141489</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3760,363 +4192,370 @@
       <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1984</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1984</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>1985</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>54.88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>21.77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>2.31</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>8.07</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>21.75</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>191.04</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>10.88</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>275.07</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>23.92</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>101.5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>200.38</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>162.44</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>100.28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>267.58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>242.12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>822.55</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>418.57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B20">
-        <v>818.19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="B20" s="0" t="n">
+        <v>818.1900000000001</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>718.08</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>2961.45</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>1909.6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>1066.5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>1138.01</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B26">
-        <v>539.05999999999995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="B26" s="0" t="n">
+        <v>539.0599999999999</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>1908.74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>453.45</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>2231.63</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>3915.79</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>554.04</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>707.3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B33">
-        <v>608.07000000000005</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="B33" s="0" t="n">
+        <v>608.0700000000001</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>104.27</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>634</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>424</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>1497</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>1838</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>1600</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>1400</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>1500</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4126,211 +4565,218 @@
       <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>208.52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>295.18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>285.89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B8">
-        <v>555.33000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="B8" s="0" t="n">
+        <v>555.33</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>837.35</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>4312</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>12568.97</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>1668.69</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B14">
-        <v>5171.4799999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="B14" s="0" t="n">
+        <v>5171.48</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>307.32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>900</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>800</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4340,247 +4786,254 @@
       <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1999</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>164.92</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>504.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>517</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>1429.59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>328.14</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B9">
-        <v>133.02000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="B9" s="0" t="n">
+        <v>133.02</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>216.17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>229.26</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>222.95</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>286.68</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B14">
-        <v>299.22000000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="B14" s="0" t="n">
+        <v>299.22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>927</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B20">
-        <v>633.95000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="B20" s="0" t="n">
+        <v>633.95</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>442.5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>508.7</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>400</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>500</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4590,536 +5043,543 @@
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1962</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1962</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>1963</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>1291</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>1964</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>2675</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1965</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="0" t="n">
         <v>27087</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>1966</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0" t="n">
         <v>5936</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>1967</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>5124</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>1968</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="0" t="n">
         <v>15132</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>1969</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>1970</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>10299</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>1971</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>7127</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>1972</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>4291</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>1973</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>2663</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>1974</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>14139</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>1975</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>13517</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>1976</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>3734</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>1977</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>1978</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>1518</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>1979</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>6100</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>1980</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>4393</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>1981</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>6009</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>1982</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>6063</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>1983</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>11023</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>1984</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>45968</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>1985</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="0" t="n">
         <v>24039</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>1986</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>22512</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>1987</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>12970</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>10771</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>12224</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="0" t="n">
         <v>10911</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>11436</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="0" t="n">
         <v>10912</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="0" t="n">
         <v>10674</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>13030</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>12729</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>10548</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>16935</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>11514</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>11394</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>11827.6</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="0" t="n">
         <v>13037</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="0" t="n">
         <v>17488</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="0" t="n">
         <v>13451</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="0" t="n">
         <v>11922</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="0" t="n">
         <v>9286.15</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="0" t="n">
         <v>10537.27</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="0" t="n">
         <v>11715.81</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="0" t="n">
         <v>11573.61</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49">
+    <row r="49">
+      <c r="A49" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="0" t="n">
         <v>11713.6</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A50">
+    <row r="50">
+      <c r="A50" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="0" t="n">
         <v>11064.89</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51">
+    <row r="51">
+      <c r="A51" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="0" t="n">
         <v>12104.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52">
+    <row r="52">
+      <c r="A52" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="0" t="n">
         <v>11405.36</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53">
+    <row r="53">
+      <c r="A53" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="0" t="n">
         <v>3272.22</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54">
+    <row r="54">
+      <c r="A54" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="0" t="n">
         <v>2115.67</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="55">
+      <c r="A55" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="0" t="n">
         <v>1090.72</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56">
+    <row r="56">
+      <c r="A56" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="0" t="n">
         <v>1893.75</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57">
+    <row r="57">
+      <c r="A57" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="0" t="n">
         <v>3491.14</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A58">
+    <row r="58">
+      <c r="A58" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="0" t="n">
         <v>2337.6</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A59">
+    <row r="59">
+      <c r="A59" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="0" t="n">
         <v>2762.69</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A60">
+    <row r="60">
+      <c r="A60" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="0" t="n">
         <v>4505</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A61">
+    <row r="61">
+      <c r="A61" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="0" t="n">
         <v>4800</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A62">
+    <row r="62">
+      <c r="A62" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A63">
+    <row r="63">
+      <c r="A63" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="0" t="n">
         <v>4100</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A64">
+    <row r="64">
+      <c r="A64" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="0" t="n">
         <v>3600</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A65">
+    <row r="65">
+      <c r="A65" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="0" t="n">
         <v>3700</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5129,208 +5589,215 @@
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2">
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>647.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>285.55</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3">
-        <v>2059</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>2005</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5">
-        <v>647.51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
-        <v>2007</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7">
-        <v>285.55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>1038.03</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0" t="n">
         <v>5217.55</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="0" t="n">
         <v>3623.28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>544.66</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>440.14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="0" t="n">
         <v>1095.44</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>165.01</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>2265.9</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>1605.41</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>4800</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="0" t="n">
         <v>4300</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>4100</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>3600</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>3700</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5340,339 +5807,346 @@
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1987</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1987</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>1988</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>5.68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>1989</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>15.5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>1990</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>1991</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>46.14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0" t="n">
         <v>76.03</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B11">
-        <v>152.13999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="B11" s="0" t="n">
+        <v>152.14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="0" t="n">
         <v>29.06</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="0" t="n">
         <v>30.32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="0" t="n">
         <v>212.51</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B15">
-        <v>157.97999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="B15" s="0" t="n">
+        <v>157.98</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="0" t="n">
         <v>118.3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="0" t="n">
         <v>189.02</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18">
+      <c r="A18" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="0" t="n">
         <v>157.5</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="0" t="n">
         <v>1285.24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20">
+      <c r="A20" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="0" t="n">
         <v>1507.75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21">
+      <c r="A21" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B21">
-        <v>1192.5899999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="B21" s="0" t="n">
+        <v>1192.59</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="0" t="n">
         <v>451.7</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="0" t="n">
         <v>238.22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="0" t="n">
         <v>1533.36</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26">
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="0" t="n">
         <v>1757.9</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="0" t="n">
         <v>3132.88</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="0" t="n">
         <v>546.15</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="0" t="n">
         <v>163.82</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31">
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="0" t="n">
         <v>104.27</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33">
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B33">
-        <v>309.95999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34">
+      <c r="B33" s="0" t="n">
+        <v>309.96</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="0" t="n">
         <v>920.79</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="0" t="n">
         <v>1183.73</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="0" t="n">
         <v>850</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="0" t="n">
         <v>600</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="0" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="0" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="0" t="n">
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5682,299 +6156,306 @@
       <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1992</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1992</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" ht="14.25" customHeight="1" s="15">
+      <c r="A3" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="n">
         <v>1620</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" ht="14.25" customHeight="1" s="15">
+      <c r="A4" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5">
+      <c r="B4" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1" s="15">
+      <c r="A5" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="2" t="n">
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6">
+    <row r="6" ht="14.25" customHeight="1" s="15">
+      <c r="A6" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7">
+      <c r="B6" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" customHeight="1" s="15">
+      <c r="A7" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" s="15">
+      <c r="A8" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="2" t="n">
         <v>1052</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="9" ht="14.25" customHeight="1" s="15">
+      <c r="A9" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="2" t="n">
         <v>8107</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" ht="14.25" customHeight="1" s="15">
+      <c r="A10" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="2" t="n">
         <v>4883</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11">
+    <row r="11" ht="14.25" customHeight="1" s="15">
+      <c r="A11" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="2" t="n">
         <v>3955</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12">
+    <row r="12" ht="14.25" customHeight="1" s="15">
+      <c r="A12" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="2" t="n">
         <v>5405</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" ht="14.25" customHeight="1" s="15">
+      <c r="A13" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="2" t="n">
         <v>7791</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" ht="14.25" customHeight="1" s="15">
+      <c r="A14" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="2" t="n">
         <v>21374</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15">
+    <row r="15" ht="14.25" customHeight="1" s="15">
+      <c r="A15" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B15" s="3">
-        <v>9646.3799999999992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16">
+      <c r="B15" s="3" t="n">
+        <v>9646.379999999999</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" customHeight="1" s="15">
+      <c r="A16" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="3" t="n">
         <v>8045.29</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" ht="14.25" customHeight="1" s="15">
+      <c r="A17" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="3" t="n">
         <v>9411.15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" ht="14.25" customHeight="1" s="15">
+      <c r="A18" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="3" t="n">
         <v>12955.47</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" ht="14.25" customHeight="1" s="15">
+      <c r="A19" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="3" t="n">
         <v>12483.04</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" ht="14.25" customHeight="1" s="15">
+      <c r="A20" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B20" s="3">
-        <v>9655.7999999999993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21">
+      <c r="B20" s="3" t="n">
+        <v>9655.799999999999</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25" customHeight="1" s="15">
+      <c r="A21" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B21" s="2">
-        <v>9639.5300000000007</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="B21" s="2" t="n">
+        <v>9639.530000000001</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" s="15">
+      <c r="A22" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B22" s="3">
-        <v>9551.3799999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="B22" s="3" t="n">
+        <v>9551.379999999999</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" s="15">
+      <c r="A23" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="3" t="n">
         <v>2838.24</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" ht="14.25" customHeight="1" s="15">
+      <c r="A24" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="3" t="n">
         <v>1119.56</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25">
+    <row r="25" ht="14.25" customHeight="1" s="15">
+      <c r="A25" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="3" t="n">
         <v>5315.48</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" ht="14.25" customHeight="1" s="15">
+      <c r="A26" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="3" t="n">
         <v>1474.87</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27">
+    <row r="27" ht="14.25" customHeight="1" s="15">
+      <c r="A27" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="B27" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" s="15">
+      <c r="A28" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="2" t="n">
         <v>5050.41</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29">
+    <row r="29" ht="14.25" customHeight="1" s="15">
+      <c r="A29" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B29" s="2">
-        <v>4817.1099999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30">
+      <c r="B29" s="2" t="n">
+        <v>4817.11</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25" customHeight="1" s="15">
+      <c r="A30" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="2" t="n">
         <v>5853.74</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31" ht="14.25" customHeight="1" s="15">
+      <c r="A31" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="4" t="n">
         <v>7500</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32">
+    <row r="32" ht="14.25" customHeight="1" s="15">
+      <c r="A32" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="4" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" ht="14.25" customHeight="1" s="15">
+      <c r="A33" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="4" t="n">
         <v>8500</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34" ht="14.25" customHeight="1" s="15">
+      <c r="A34" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="4" t="n">
         <v>9000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35" ht="14.25" customHeight="1" s="15">
+      <c r="A35" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B35" s="4">
+      <c r="B35" s="4" t="n">
         <v>9000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5984,301 +6465,304 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>年份</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>实际值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1991</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1991</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A3">
+    <row r="3" ht="14.25" customHeight="1" s="15">
+      <c r="A3" s="0" t="n">
         <v>1992</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="5" t="n">
         <v>196.22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A4">
+    <row r="4" ht="14.25" customHeight="1" s="15">
+      <c r="A4" s="0" t="n">
         <v>1993</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="5" t="n">
         <v>12.31</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A5">
+    <row r="5" ht="14.25" customHeight="1" s="15">
+      <c r="A5" s="0" t="n">
         <v>1994</v>
       </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A6">
+      <c r="B5" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1" s="15">
+      <c r="A6" s="0" t="n">
         <v>1995</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="5" t="n">
         <v>12.97</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A7">
+    <row r="7" ht="14.25" customHeight="1" s="15">
+      <c r="A7" s="0" t="n">
         <v>1996</v>
       </c>
-      <c r="B7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A8">
+      <c r="B7" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25" customHeight="1" s="15">
+      <c r="A8" s="0" t="n">
         <v>1997</v>
       </c>
-      <c r="B8" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A9">
+      <c r="B8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25" customHeight="1" s="15">
+      <c r="A9" s="0" t="n">
         <v>1998</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="5" t="n">
         <v>28.64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A10">
+    <row r="10" ht="14.25" customHeight="1" s="15">
+      <c r="A10" s="0" t="n">
         <v>1999</v>
       </c>
-      <c r="B10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A11">
+      <c r="B10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" customHeight="1" s="15">
+      <c r="A11" s="0" t="n">
         <v>2000</v>
       </c>
-      <c r="B11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A12">
+      <c r="B11" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" ht="14.25" customHeight="1" s="15">
+      <c r="A12" s="0" t="n">
         <v>2001</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="5" t="n">
         <v>49.35</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A13">
+    <row r="13" ht="14.25" customHeight="1" s="15">
+      <c r="A13" s="0" t="n">
         <v>2002</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="5" t="n">
         <v>12.07</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A14">
+    <row r="14" ht="14.25" customHeight="1" s="15">
+      <c r="A14" s="0" t="n">
         <v>2003</v>
       </c>
-      <c r="B14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A15">
+      <c r="B14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" customHeight="1" s="15">
+      <c r="A15" s="0" t="n">
         <v>2004</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="5" t="n">
         <v>183.98</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A16">
+    <row r="16" ht="14.25" customHeight="1" s="15">
+      <c r="A16" s="0" t="n">
         <v>2005</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="5" t="n">
         <v>21.03</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A17">
+    <row r="17" ht="14.25" customHeight="1" s="15">
+      <c r="A17" s="0" t="n">
         <v>2006</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="5" t="n">
         <v>90.42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A18">
+    <row r="18" ht="14.25" customHeight="1" s="15">
+      <c r="A18" s="0" t="n">
         <v>2007</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="5" t="n">
         <v>36.29</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A19">
+    <row r="19" ht="14.25" customHeight="1" s="15">
+      <c r="A19" s="0" t="n">
         <v>2008</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="5" t="n">
         <v>16.03</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A20">
+    <row r="20" ht="14.25" customHeight="1" s="15">
+      <c r="A20" s="0" t="n">
         <v>2009</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="5" t="n">
         <v>5.25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A21">
+    <row r="21" ht="14.25" customHeight="1" s="15">
+      <c r="A21" s="0" t="n">
         <v>2010</v>
       </c>
-      <c r="B21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A22">
+      <c r="B21" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25" customHeight="1" s="15">
+      <c r="A22" s="0" t="n">
         <v>2011</v>
       </c>
-      <c r="B22" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A23">
+      <c r="B22" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25" customHeight="1" s="15">
+      <c r="A23" s="0" t="n">
         <v>2012</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="5" t="n">
         <v>14.3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A24">
+    <row r="24" ht="14.25" customHeight="1" s="15">
+      <c r="A24" s="0" t="n">
         <v>2013</v>
       </c>
-      <c r="B24" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A25">
+      <c r="B24" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25" customHeight="1" s="15">
+      <c r="A25" s="0" t="n">
         <v>2014</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="5" t="n">
         <v>18.78</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A26">
+    <row r="26" ht="14.25" customHeight="1" s="15">
+      <c r="A26" s="0" t="n">
         <v>2015</v>
       </c>
-      <c r="B26" s="5">
-        <v>18.920000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A27">
+      <c r="B26" s="5" t="n">
+        <v>18.92</v>
+      </c>
+    </row>
+    <row r="27" ht="14.25" customHeight="1" s="15">
+      <c r="A27" s="0" t="n">
         <v>2016</v>
       </c>
-      <c r="B27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A28">
+      <c r="B27" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" s="15">
+      <c r="A28" s="0" t="n">
         <v>2017</v>
       </c>
-      <c r="B28" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A29">
+      <c r="B28" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" s="15">
+      <c r="A29" s="0" t="n">
         <v>2018</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="5" t="n">
         <v>41.85</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A30">
+    <row r="30" ht="14.25" customHeight="1" s="15">
+      <c r="A30" s="0" t="n">
         <v>2019</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="5" t="n">
         <v>1.53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A31">
+    <row r="31" ht="14.25" customHeight="1" s="15">
+      <c r="A31" s="0" t="n">
         <v>2020</v>
       </c>
-      <c r="B31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A32">
+      <c r="B31" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25" customHeight="1" s="15">
+      <c r="A32" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33">
+    <row r="33" ht="14.25" customHeight="1" s="15">
+      <c r="A33" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A34">
+    <row r="34" ht="14.25" customHeight="1" s="15">
+      <c r="A34" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A35">
+    <row r="35" ht="14.25" customHeight="1" s="15">
+      <c r="A35" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="6" t="n">
         <v>200</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A36">
+    <row r="36" ht="14.25" customHeight="1" s="15">
+      <c r="A36" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="6" t="n">
         <v>200</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/datasets/数据单元.xlsx
+++ b/data/datasets/数据单元.xlsx
@@ -21,7 +21,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7_平滑处理" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_平滑处理" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -3840,7 +3840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,314 +3862,338 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1987</v>
+        <v>1984</v>
       </c>
       <c r="B2" t="n">
-        <v>1.361377405853548</v>
+        <v>2.658102506180137</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="B3" t="n">
-        <v>7.27574625763329</v>
+        <v>51.56462791670604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B4" t="n">
-        <v>12.78722253235772</v>
+        <v>22.64998067166655</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1990</v>
+        <v>1987</v>
       </c>
       <c r="B5" t="n">
-        <v>2.368987049549232</v>
+        <v>4.811428266468187</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="B6" t="n">
-        <v>8.603309627443474</v>
+        <v>7.912486729093207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="B7" t="n">
-        <v>34.48834198123256</v>
+        <v>47.68381211069133</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B8" t="n">
-        <v>17.75341397288843</v>
+        <v>145.3695968927823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B9" t="n">
-        <v>56.64649259753239</v>
+        <v>70.63470249822946</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1995</v>
+        <v>1992</v>
       </c>
       <c r="B10" t="n">
-        <v>30.84260219333607</v>
+        <v>211.5279920031363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1996</v>
+        <v>1993</v>
       </c>
       <c r="B11" t="n">
-        <v>119.705570557399</v>
+        <v>53.6688873924312</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1997</v>
+        <v>1994</v>
       </c>
       <c r="B12" t="n">
-        <v>37.36503110935236</v>
+        <v>104.5902204795013</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1998</v>
+        <v>1995</v>
       </c>
       <c r="B13" t="n">
-        <v>54.22782310383855</v>
+        <v>188.7210528271173</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="B14" t="n">
-        <v>184.4251497381987</v>
+        <v>153.9521441761099</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2000</v>
+        <v>1997</v>
       </c>
       <c r="B15" t="n">
-        <v>157.9588234831488</v>
+        <v>128.3020359731516</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2001</v>
+        <v>1998</v>
       </c>
       <c r="B16" t="n">
-        <v>132.7417076686659</v>
+        <v>229.6171310662761</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2002</v>
+        <v>1999</v>
       </c>
       <c r="B17" t="n">
-        <v>161.182497801985</v>
+        <v>333.1035593044238</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2003</v>
+        <v>2000</v>
       </c>
       <c r="B18" t="n">
-        <v>298.7259008814832</v>
+        <v>693.3260489166908</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2004</v>
+        <v>2001</v>
       </c>
       <c r="B19" t="n">
-        <v>1167.139104927683</v>
+        <v>519.6862523292097</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2005</v>
+        <v>2002</v>
       </c>
       <c r="B20" t="n">
-        <v>1514.087032491979</v>
+        <v>709.827111832966</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2006</v>
+        <v>2003</v>
       </c>
       <c r="B21" t="n">
-        <v>1141.862449417101</v>
+        <v>1041.58377859409</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="B22" t="n">
-        <v>451.9672515638709</v>
+        <v>2627.633951838181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2008</v>
+        <v>2005</v>
       </c>
       <c r="B23" t="n">
-        <v>491.9077288627026</v>
+        <v>1923.577231347775</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2009</v>
+        <v>2006</v>
       </c>
       <c r="B24" t="n">
-        <v>1167.17876920563</v>
+        <v>1188.171855750842</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2010</v>
+        <v>2007</v>
       </c>
       <c r="B25" t="n">
-        <v>342.5040509599415</v>
+        <v>992.5861124595016</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2011</v>
+        <v>2008</v>
       </c>
       <c r="B26" t="n">
-        <v>1802.031867210248</v>
+        <v>834.1250927859189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2012</v>
+        <v>2009</v>
       </c>
       <c r="B27" t="n">
-        <v>2704.065573045329</v>
+        <v>1519.817593761609</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2013</v>
+        <v>2010</v>
       </c>
       <c r="B28" t="n">
-        <v>711.3952495373547</v>
+        <v>790.411413855616</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B29" t="n">
-        <v>168.1204454860728</v>
+        <v>2387.253700297832</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B30" t="n">
-        <v>38.08508052240384</v>
+        <v>3319.30777296423</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="B31" t="n">
-        <v>76.76521909645474</v>
+        <v>874.4672177199157</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="B32" t="n">
-        <v>45.97919676706215</v>
+        <v>706.4447781346622</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="B33" t="n">
-        <v>326.121273367681</v>
+        <v>516.8227308947437</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="B34" t="n">
-        <v>888.7619513798154</v>
+        <v>224.383078632301</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="B35" t="n">
-        <v>1143.944549472441</v>
+        <v>512.1486830998771</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="B36" t="n">
-        <v>852.9637295590607</v>
+        <v>574.9059407386593</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B37" t="n">
-        <v>626.8069004686902</v>
+        <v>1413.651744500197</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2023</v>
+        <v>2020</v>
       </c>
       <c r="B38" t="n">
-        <v>642.0301170348661</v>
+        <v>1802.821682667891</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="B39" t="n">
-        <v>644.0863403475652</v>
+        <v>1605.648698932538</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1430.696093654705</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1485.548525218145</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1500.114415997918</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
         <v>2025</v>
       </c>
-      <c r="B40" t="n">
-        <v>602.2761213141489</v>
+      <c r="B43" t="n">
+        <v>1500.560732260023</v>
       </c>
     </row>
   </sheetData>

--- a/data/datasets/数据单元.xlsx
+++ b/data/datasets/数据单元.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="680" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1080" yWindow="760" windowWidth="29040" windowHeight="15840" tabRatio="680" firstSheet="0" activeTab="14" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="1" state="visible" r:id="rId1"/>
@@ -21,10 +21,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="14" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_平滑处理" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_平滑处理_3" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -33,7 +33,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00;[Red]0.00"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="10">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -46,144 +46,7 @@
       <name val="宋体"/>
       <charset val="134"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
       <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <family val="2"/>
-      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -242,188 +105,15 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.7999816888943144"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.5999938962981048"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.3999755851924192"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -431,242 +121,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="43">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -675,92 +135,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="42"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="42">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="标题" xfId="1" builtinId="15"/>
-    <cellStyle name="标题 1" xfId="2" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="3" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="4" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="5" builtinId="19"/>
-    <cellStyle name="好" xfId="6" builtinId="26"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="适中" xfId="8" builtinId="28"/>
-    <cellStyle name="输入" xfId="9" builtinId="20"/>
-    <cellStyle name="输出" xfId="10" builtinId="21"/>
-    <cellStyle name="计算" xfId="11" builtinId="22"/>
-    <cellStyle name="链接单元格" xfId="12" builtinId="24"/>
-    <cellStyle name="检查单元格" xfId="13" builtinId="23"/>
-    <cellStyle name="警告文本" xfId="14" builtinId="11"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="解释性文本" xfId="16" builtinId="53"/>
-    <cellStyle name="汇总" xfId="17" builtinId="25"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29"/>
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="42"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1161,14 +580,14 @@
   </sheetPr>
   <dimension ref="A1:B65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -1714,7 +1133,7 @@
       <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -1736,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="15">
+    <row r="3" ht="14.25" customHeight="1" s="14">
       <c r="A3" s="0" t="n">
         <v>1978</v>
       </c>
@@ -1744,7 +1163,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="15">
+    <row r="4" ht="14.25" customHeight="1" s="14">
       <c r="A4" s="0" t="n">
         <v>1979</v>
       </c>
@@ -1752,7 +1171,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="15">
+    <row r="5" ht="14.25" customHeight="1" s="14">
       <c r="A5" s="0" t="n">
         <v>1980</v>
       </c>
@@ -1760,7 +1179,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="15">
+    <row r="6" ht="14.25" customHeight="1" s="14">
       <c r="A6" s="0" t="n">
         <v>1981</v>
       </c>
@@ -1768,7 +1187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="15">
+    <row r="7" ht="14.25" customHeight="1" s="14">
       <c r="A7" s="0" t="n">
         <v>1982</v>
       </c>
@@ -1776,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="15">
+    <row r="8" ht="14.25" customHeight="1" s="14">
       <c r="A8" s="0" t="n">
         <v>1983</v>
       </c>
@@ -1784,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="15">
+    <row r="9" ht="14.25" customHeight="1" s="14">
       <c r="A9" s="0" t="n">
         <v>1984</v>
       </c>
@@ -1792,7 +1211,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="15">
+    <row r="10" ht="14.25" customHeight="1" s="14">
       <c r="A10" s="0" t="n">
         <v>1985</v>
       </c>
@@ -1800,7 +1219,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="15">
+    <row r="11" ht="14.25" customHeight="1" s="14">
       <c r="A11" s="0" t="n">
         <v>1986</v>
       </c>
@@ -1808,7 +1227,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="15">
+    <row r="12" ht="14.25" customHeight="1" s="14">
       <c r="A12" s="0" t="n">
         <v>1987</v>
       </c>
@@ -1816,7 +1235,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="15">
+    <row r="13" ht="14.25" customHeight="1" s="14">
       <c r="A13" s="0" t="n">
         <v>1988</v>
       </c>
@@ -1824,7 +1243,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="15">
+    <row r="14" ht="14.25" customHeight="1" s="14">
       <c r="A14" s="0" t="n">
         <v>1989</v>
       </c>
@@ -1832,7 +1251,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="15">
+    <row r="15" ht="14.25" customHeight="1" s="14">
       <c r="A15" s="0" t="n">
         <v>1990</v>
       </c>
@@ -1840,7 +1259,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="15">
+    <row r="16" ht="14.25" customHeight="1" s="14">
       <c r="A16" s="0" t="n">
         <v>1991</v>
       </c>
@@ -1848,7 +1267,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="15">
+    <row r="17" ht="14.25" customHeight="1" s="14">
       <c r="A17" s="0" t="n">
         <v>1992</v>
       </c>
@@ -1856,7 +1275,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="15">
+    <row r="18" ht="14.25" customHeight="1" s="14">
       <c r="A18" s="0" t="n">
         <v>1993</v>
       </c>
@@ -1864,7 +1283,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="15">
+    <row r="19" ht="14.25" customHeight="1" s="14">
       <c r="A19" s="0" t="n">
         <v>1994</v>
       </c>
@@ -1872,7 +1291,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="15">
+    <row r="20" ht="14.25" customHeight="1" s="14">
       <c r="A20" s="0" t="n">
         <v>1995</v>
       </c>
@@ -1880,7 +1299,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="15">
+    <row r="21" ht="14.25" customHeight="1" s="14">
       <c r="A21" s="0" t="n">
         <v>1996</v>
       </c>
@@ -1888,7 +1307,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="15">
+    <row r="22" ht="14.25" customHeight="1" s="14">
       <c r="A22" s="0" t="n">
         <v>1997</v>
       </c>
@@ -1896,7 +1315,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="15">
+    <row r="23" ht="14.25" customHeight="1" s="14">
       <c r="A23" s="0" t="n">
         <v>1998</v>
       </c>
@@ -1904,7 +1323,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="15">
+    <row r="24" ht="14.25" customHeight="1" s="14">
       <c r="A24" s="0" t="n">
         <v>1999</v>
       </c>
@@ -1912,7 +1331,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="15">
+    <row r="25" ht="14.25" customHeight="1" s="14">
       <c r="A25" s="0" t="n">
         <v>2000</v>
       </c>
@@ -1920,7 +1339,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="15">
+    <row r="26" ht="14.25" customHeight="1" s="14">
       <c r="A26" s="0" t="n">
         <v>2001</v>
       </c>
@@ -1928,7 +1347,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="15">
+    <row r="27" ht="14.25" customHeight="1" s="14">
       <c r="A27" s="0" t="n">
         <v>2002</v>
       </c>
@@ -1936,7 +1355,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="15">
+    <row r="28" ht="14.25" customHeight="1" s="14">
       <c r="A28" s="0" t="n">
         <v>2003</v>
       </c>
@@ -1944,7 +1363,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="15">
+    <row r="29" ht="14.25" customHeight="1" s="14">
       <c r="A29" s="0" t="n">
         <v>2004</v>
       </c>
@@ -1952,7 +1371,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="15">
+    <row r="30" ht="14.25" customHeight="1" s="14">
       <c r="A30" s="0" t="n">
         <v>2005</v>
       </c>
@@ -1960,7 +1379,7 @@
         <v>1148.14</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="15">
+    <row r="31" ht="14.25" customHeight="1" s="14">
       <c r="A31" s="0" t="n">
         <v>2006</v>
       </c>
@@ -1968,7 +1387,7 @@
         <v>1439.79</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="15">
+    <row r="32" ht="14.25" customHeight="1" s="14">
       <c r="A32" s="0" t="n">
         <v>2007</v>
       </c>
@@ -1976,7 +1395,7 @@
         <v>1262.3</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="15">
+    <row r="33" ht="14.25" customHeight="1" s="14">
       <c r="A33" s="0" t="n">
         <v>2008</v>
       </c>
@@ -1984,7 +1403,7 @@
         <v>1158.28</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="15">
+    <row r="34" ht="14.25" customHeight="1" s="14">
       <c r="A34" s="0" t="n">
         <v>2009</v>
       </c>
@@ -1992,7 +1411,7 @@
         <v>1399.99</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="15">
+    <row r="35" ht="14.25" customHeight="1" s="14">
       <c r="A35" s="0" t="n">
         <v>2010</v>
       </c>
@@ -2000,7 +1419,7 @@
         <v>1517.93</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="15">
+    <row r="36" ht="14.25" customHeight="1" s="14">
       <c r="A36" s="0" t="n">
         <v>2011</v>
       </c>
@@ -2008,7 +1427,7 @@
         <v>1668.86</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="15">
+    <row r="37" ht="14.25" customHeight="1" s="14">
       <c r="A37" s="0" t="n">
         <v>2012</v>
       </c>
@@ -2016,7 +1435,7 @@
         <v>445.33</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="15">
+    <row r="38" ht="14.25" customHeight="1" s="14">
       <c r="A38" s="0" t="n">
         <v>2013</v>
       </c>
@@ -2024,7 +1443,7 @@
         <v>564.87</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="15">
+    <row r="39" ht="14.25" customHeight="1" s="14">
       <c r="A39" s="0" t="n">
         <v>2014</v>
       </c>
@@ -2032,7 +1451,7 @@
         <v>635.53</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="15">
+    <row r="40" ht="14.25" customHeight="1" s="14">
       <c r="A40" s="0" t="n">
         <v>2015</v>
       </c>
@@ -2040,7 +1459,7 @@
         <v>380.53</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="15">
+    <row r="41" ht="14.25" customHeight="1" s="14">
       <c r="A41" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2048,7 +1467,7 @@
         <v>178.68</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="15">
+    <row r="42" ht="14.25" customHeight="1" s="14">
       <c r="A42" s="0" t="n">
         <v>2017</v>
       </c>
@@ -2056,7 +1475,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="15">
+    <row r="43" ht="14.25" customHeight="1" s="14">
       <c r="A43" s="0" t="n">
         <v>2018</v>
       </c>
@@ -2064,7 +1483,7 @@
         <v>67.8</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="15">
+    <row r="44" ht="14.25" customHeight="1" s="14">
       <c r="A44" s="0" t="n">
         <v>2019</v>
       </c>
@@ -2072,7 +1491,7 @@
         <v>216.47</v>
       </c>
     </row>
-    <row r="45" ht="14.25" customHeight="1" s="15">
+    <row r="45" ht="14.25" customHeight="1" s="14">
       <c r="A45" s="0" t="n">
         <v>2020</v>
       </c>
@@ -2080,7 +1499,7 @@
         <v>609.28</v>
       </c>
     </row>
-    <row r="46" ht="14.25" customHeight="1" s="15">
+    <row r="46" ht="14.25" customHeight="1" s="14">
       <c r="A46" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2088,7 +1507,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="47" ht="14.25" customHeight="1" s="15">
+    <row r="47" ht="14.25" customHeight="1" s="14">
       <c r="A47" s="0" t="n">
         <v>2022</v>
       </c>
@@ -2096,7 +1515,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="48" ht="14.25" customHeight="1" s="15">
+    <row r="48" ht="14.25" customHeight="1" s="14">
       <c r="A48" s="0" t="n">
         <v>2023</v>
       </c>
@@ -2104,7 +1523,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="49" ht="14.25" customHeight="1" s="15">
+    <row r="49" ht="14.25" customHeight="1" s="14">
       <c r="A49" s="0" t="n">
         <v>2024</v>
       </c>
@@ -2112,7 +1531,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="50" ht="14.25" customHeight="1" s="15">
+    <row r="50" ht="14.25" customHeight="1" s="14">
       <c r="A50" s="0" t="n">
         <v>2025</v>
       </c>
@@ -2140,9 +1559,9 @@
       <selection pane="bottomRight" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2165,7 +1584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="15">
+    <row r="3" ht="14.25" customHeight="1" s="14">
       <c r="A3" s="0" t="n">
         <v>1984</v>
       </c>
@@ -2173,7 +1592,7 @@
         <v>268.76</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="15">
+    <row r="4" ht="14.25" customHeight="1" s="14">
       <c r="A4" s="0" t="n">
         <v>1985</v>
       </c>
@@ -2181,7 +1600,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="15">
+    <row r="5" ht="14.25" customHeight="1" s="14">
       <c r="A5" s="0" t="n">
         <v>1986</v>
       </c>
@@ -2189,7 +1608,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="15">
+    <row r="6" ht="14.25" customHeight="1" s="14">
       <c r="A6" s="0" t="n">
         <v>1987</v>
       </c>
@@ -2197,7 +1616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="15">
+    <row r="7" ht="14.25" customHeight="1" s="14">
       <c r="A7" s="0" t="n">
         <v>1988</v>
       </c>
@@ -2205,7 +1624,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="15">
+    <row r="8" ht="14.25" customHeight="1" s="14">
       <c r="A8" s="0" t="n">
         <v>1989</v>
       </c>
@@ -2213,7 +1632,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="15">
+    <row r="9" ht="14.25" customHeight="1" s="14">
       <c r="A9" s="0" t="n">
         <v>1990</v>
       </c>
@@ -2221,7 +1640,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="15">
+    <row r="10" ht="14.25" customHeight="1" s="14">
       <c r="A10" s="0" t="n">
         <v>1991</v>
       </c>
@@ -2229,7 +1648,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="15">
+    <row r="11" ht="14.25" customHeight="1" s="14">
       <c r="A11" s="0" t="n">
         <v>1992</v>
       </c>
@@ -2237,7 +1656,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="15">
+    <row r="12" ht="14.25" customHeight="1" s="14">
       <c r="A12" s="0" t="n">
         <v>1993</v>
       </c>
@@ -2245,7 +1664,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="15">
+    <row r="13" ht="14.25" customHeight="1" s="14">
       <c r="A13" s="0" t="n">
         <v>1994</v>
       </c>
@@ -2253,7 +1672,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="15">
+    <row r="14" ht="14.25" customHeight="1" s="14">
       <c r="A14" s="0" t="n">
         <v>1995</v>
       </c>
@@ -2261,7 +1680,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="15">
+    <row r="15" ht="14.25" customHeight="1" s="14">
       <c r="A15" s="0" t="n">
         <v>1996</v>
       </c>
@@ -2269,7 +1688,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="15">
+    <row r="16" ht="14.25" customHeight="1" s="14">
       <c r="A16" s="0" t="n">
         <v>1997</v>
       </c>
@@ -2277,7 +1696,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="15">
+    <row r="17" ht="14.25" customHeight="1" s="14">
       <c r="A17" s="0" t="n">
         <v>1998</v>
       </c>
@@ -2285,7 +1704,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="15">
+    <row r="18" ht="14.25" customHeight="1" s="14">
       <c r="A18" s="0" t="n">
         <v>1999</v>
       </c>
@@ -2293,7 +1712,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="15">
+    <row r="19" ht="14.25" customHeight="1" s="14">
       <c r="A19" s="0" t="n">
         <v>2000</v>
       </c>
@@ -2301,7 +1720,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="15">
+    <row r="20" ht="14.25" customHeight="1" s="14">
       <c r="A20" s="0" t="n">
         <v>2001</v>
       </c>
@@ -2309,7 +1728,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="15">
+    <row r="21" ht="14.25" customHeight="1" s="14">
       <c r="A21" s="0" t="n">
         <v>2002</v>
       </c>
@@ -2317,7 +1736,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="15">
+    <row r="22" ht="14.25" customHeight="1" s="14">
       <c r="A22" s="0" t="n">
         <v>2003</v>
       </c>
@@ -2325,7 +1744,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="15">
+    <row r="23" ht="14.25" customHeight="1" s="14">
       <c r="A23" s="0" t="n">
         <v>2004</v>
       </c>
@@ -2333,7 +1752,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="15">
+    <row r="24" ht="14.25" customHeight="1" s="14">
       <c r="A24" s="0" t="n">
         <v>2005</v>
       </c>
@@ -2341,7 +1760,7 @@
         <v>254.5</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="15">
+    <row r="25" ht="14.25" customHeight="1" s="14">
       <c r="A25" s="0" t="n">
         <v>2006</v>
       </c>
@@ -2349,7 +1768,7 @@
         <v>341.02</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="15">
+    <row r="26" ht="14.25" customHeight="1" s="14">
       <c r="A26" s="0" t="n">
         <v>2007</v>
       </c>
@@ -2357,7 +1776,7 @@
         <v>396.99</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="15">
+    <row r="27" ht="14.25" customHeight="1" s="14">
       <c r="A27" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2365,7 +1784,7 @@
         <v>424.87</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="15">
+    <row r="28" ht="14.25" customHeight="1" s="14">
       <c r="A28" s="0" t="n">
         <v>2009</v>
       </c>
@@ -2373,7 +1792,7 @@
         <v>524.27</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="15">
+    <row r="29" ht="14.25" customHeight="1" s="14">
       <c r="A29" s="0" t="n">
         <v>2010</v>
       </c>
@@ -2381,7 +1800,7 @@
         <v>495.31</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="15">
+    <row r="30" ht="14.25" customHeight="1" s="14">
       <c r="A30" s="0" t="n">
         <v>2011</v>
       </c>
@@ -2389,7 +1808,7 @@
         <v>368.12</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="15">
+    <row r="31" ht="14.25" customHeight="1" s="14">
       <c r="A31" s="0" t="n">
         <v>2012</v>
       </c>
@@ -2397,7 +1816,7 @@
         <v>513.55</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="15">
+    <row r="32" ht="14.25" customHeight="1" s="14">
       <c r="A32" s="0" t="n">
         <v>2013</v>
       </c>
@@ -2405,7 +1824,7 @@
         <v>260.09</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="15">
+    <row r="33" ht="14.25" customHeight="1" s="14">
       <c r="A33" s="0" t="n">
         <v>2014</v>
       </c>
@@ -2413,7 +1832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="15">
+    <row r="34" ht="14.25" customHeight="1" s="14">
       <c r="A34" s="0" t="n">
         <v>2015</v>
       </c>
@@ -2421,7 +1840,7 @@
         <v>46.71</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="15">
+    <row r="35" ht="14.25" customHeight="1" s="14">
       <c r="A35" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2429,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="15">
+    <row r="36" ht="14.25" customHeight="1" s="14">
       <c r="A36" s="0" t="n">
         <v>2017</v>
       </c>
@@ -2437,7 +1856,7 @@
         <v>128.77</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="15">
+    <row r="37" ht="14.25" customHeight="1" s="14">
       <c r="A37" s="0" t="n">
         <v>2018</v>
       </c>
@@ -2445,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="15">
+    <row r="38" ht="14.25" customHeight="1" s="14">
       <c r="A38" s="0" t="n">
         <v>2019</v>
       </c>
@@ -2453,7 +1872,7 @@
         <v>25.35</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="15">
+    <row r="39" ht="14.25" customHeight="1" s="14">
       <c r="A39" s="0" t="n">
         <v>2020</v>
       </c>
@@ -2461,7 +1880,7 @@
         <v>44.72</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="15">
+    <row r="40" ht="14.25" customHeight="1" s="14">
       <c r="A40" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2469,7 +1888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="15">
+    <row r="41" ht="14.25" customHeight="1" s="14">
       <c r="A41" s="0" t="n">
         <v>2022</v>
       </c>
@@ -2477,7 +1896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="15">
+    <row r="42" ht="14.25" customHeight="1" s="14">
       <c r="A42" s="0" t="n">
         <v>2023</v>
       </c>
@@ -2485,7 +1904,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="15">
+    <row r="43" ht="14.25" customHeight="1" s="14">
       <c r="A43" s="0" t="n">
         <v>2024</v>
       </c>
@@ -2493,7 +1912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="15">
+    <row r="44" ht="14.25" customHeight="1" s="14">
       <c r="A44" s="0" t="n">
         <v>2025</v>
       </c>
@@ -2521,10 +1940,10 @@
       <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
-    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2547,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="15">
+    <row r="3" ht="14.25" customHeight="1" s="14">
       <c r="A3" s="0" t="n">
         <v>1984</v>
       </c>
@@ -2555,7 +1974,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="15">
+    <row r="4" ht="14.25" customHeight="1" s="14">
       <c r="A4" s="0" t="n">
         <v>1985</v>
       </c>
@@ -2563,7 +1982,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="15">
+    <row r="5" ht="14.25" customHeight="1" s="14">
       <c r="A5" s="0" t="n">
         <v>1986</v>
       </c>
@@ -2571,7 +1990,7 @@
         <v>1630</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="15">
+    <row r="6" ht="14.25" customHeight="1" s="14">
       <c r="A6" s="0" t="n">
         <v>1987</v>
       </c>
@@ -2579,7 +1998,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="15">
+    <row r="7" ht="14.25" customHeight="1" s="14">
       <c r="A7" s="0" t="n">
         <v>1988</v>
       </c>
@@ -2587,7 +2006,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="15">
+    <row r="8" ht="14.25" customHeight="1" s="14">
       <c r="A8" s="0" t="n">
         <v>1989</v>
       </c>
@@ -2595,7 +2014,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="15">
+    <row r="9" ht="14.25" customHeight="1" s="14">
       <c r="A9" s="0" t="n">
         <v>1990</v>
       </c>
@@ -2603,7 +2022,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="15">
+    <row r="10" ht="14.25" customHeight="1" s="14">
       <c r="A10" s="0" t="n">
         <v>1991</v>
       </c>
@@ -2611,7 +2030,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="15">
+    <row r="11" ht="14.25" customHeight="1" s="14">
       <c r="A11" s="0" t="n">
         <v>1992</v>
       </c>
@@ -2619,7 +2038,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="15">
+    <row r="12" ht="14.25" customHeight="1" s="14">
       <c r="A12" s="0" t="n">
         <v>1993</v>
       </c>
@@ -2627,7 +2046,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="15">
+    <row r="13" ht="14.25" customHeight="1" s="14">
       <c r="A13" s="0" t="n">
         <v>1994</v>
       </c>
@@ -2635,7 +2054,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="15">
+    <row r="14" ht="14.25" customHeight="1" s="14">
       <c r="A14" s="0" t="n">
         <v>1995</v>
       </c>
@@ -2643,7 +2062,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="15">
+    <row r="15" ht="14.25" customHeight="1" s="14">
       <c r="A15" s="0" t="n">
         <v>1996</v>
       </c>
@@ -2651,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="15">
+    <row r="16" ht="14.25" customHeight="1" s="14">
       <c r="A16" s="0" t="n">
         <v>1997</v>
       </c>
@@ -2659,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="15">
+    <row r="17" ht="14.25" customHeight="1" s="14">
       <c r="A17" s="0" t="n">
         <v>1998</v>
       </c>
@@ -2667,7 +2086,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="15">
+    <row r="18" ht="14.25" customHeight="1" s="14">
       <c r="A18" s="0" t="n">
         <v>1999</v>
       </c>
@@ -2675,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="15">
+    <row r="19" ht="14.25" customHeight="1" s="14">
       <c r="A19" s="0" t="n">
         <v>2000</v>
       </c>
@@ -2683,7 +2102,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="15">
+    <row r="20" ht="14.25" customHeight="1" s="14">
       <c r="A20" s="0" t="n">
         <v>2001</v>
       </c>
@@ -2691,7 +2110,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="15">
+    <row r="21" ht="14.25" customHeight="1" s="14">
       <c r="A21" s="0" t="n">
         <v>2002</v>
       </c>
@@ -2699,7 +2118,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="15">
+    <row r="22" ht="14.25" customHeight="1" s="14">
       <c r="A22" s="0" t="n">
         <v>2003</v>
       </c>
@@ -2707,7 +2126,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="15">
+    <row r="23" ht="14.25" customHeight="1" s="14">
       <c r="A23" s="0" t="n">
         <v>2004</v>
       </c>
@@ -2715,7 +2134,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="15">
+    <row r="24" ht="14.25" customHeight="1" s="14">
       <c r="A24" s="0" t="n">
         <v>2005</v>
       </c>
@@ -2723,7 +2142,7 @@
         <v>810.77</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="15">
+    <row r="25" ht="14.25" customHeight="1" s="14">
       <c r="A25" s="0" t="n">
         <v>2006</v>
       </c>
@@ -2731,7 +2150,7 @@
         <v>845.53</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="15">
+    <row r="26" ht="14.25" customHeight="1" s="14">
       <c r="A26" s="0" t="n">
         <v>2007</v>
       </c>
@@ -2739,7 +2158,7 @@
         <v>828.29</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="15">
+    <row r="27" ht="14.25" customHeight="1" s="14">
       <c r="A27" s="0" t="n">
         <v>2008</v>
       </c>
@@ -2747,7 +2166,7 @@
         <v>1064.66</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="15">
+    <row r="28" ht="14.25" customHeight="1" s="14">
       <c r="A28" s="0" t="n">
         <v>2009</v>
       </c>
@@ -2755,7 +2174,7 @@
         <v>1049.38</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="15">
+    <row r="29" ht="14.25" customHeight="1" s="14">
       <c r="A29" s="0" t="n">
         <v>2010</v>
       </c>
@@ -2763,7 +2182,7 @@
         <v>1056.83</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="15">
+    <row r="30" ht="14.25" customHeight="1" s="14">
       <c r="A30" s="0" t="n">
         <v>2011</v>
       </c>
@@ -2771,7 +2190,7 @@
         <v>900.87</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="15">
+    <row r="31" ht="14.25" customHeight="1" s="14">
       <c r="A31" s="0" t="n">
         <v>2012</v>
       </c>
@@ -2779,7 +2198,7 @@
         <v>1014.36</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="15">
+    <row r="32" ht="14.25" customHeight="1" s="14">
       <c r="A32" s="0" t="n">
         <v>2013</v>
       </c>
@@ -2787,7 +2206,7 @@
         <v>101.53</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="15">
+    <row r="33" ht="14.25" customHeight="1" s="14">
       <c r="A33" s="0" t="n">
         <v>2014</v>
       </c>
@@ -2795,7 +2214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="15">
+    <row r="34" ht="14.25" customHeight="1" s="14">
       <c r="A34" s="0" t="n">
         <v>2015</v>
       </c>
@@ -2803,7 +2222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="15">
+    <row r="35" ht="14.25" customHeight="1" s="14">
       <c r="A35" s="0" t="n">
         <v>2016</v>
       </c>
@@ -2811,7 +2230,7 @@
         <v>77.68000000000001</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="15">
+    <row r="36" ht="14.25" customHeight="1" s="14">
       <c r="A36" s="0" t="n">
         <v>2017</v>
       </c>
@@ -2819,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" ht="14.25" customHeight="1" s="15">
+    <row r="37" ht="14.25" customHeight="1" s="14">
       <c r="A37" s="0" t="n">
         <v>2018</v>
       </c>
@@ -2827,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" ht="14.25" customHeight="1" s="15">
+    <row r="38" ht="14.25" customHeight="1" s="14">
       <c r="A38" s="0" t="n">
         <v>2019</v>
       </c>
@@ -2835,7 +2254,7 @@
         <v>238.97</v>
       </c>
     </row>
-    <row r="39" ht="14.25" customHeight="1" s="15">
+    <row r="39" ht="14.25" customHeight="1" s="14">
       <c r="A39" s="0" t="n">
         <v>2020</v>
       </c>
@@ -2843,7 +2262,7 @@
         <v>329.17</v>
       </c>
     </row>
-    <row r="40" ht="14.25" customHeight="1" s="15">
+    <row r="40" ht="14.25" customHeight="1" s="14">
       <c r="A40" s="0" t="n">
         <v>2021</v>
       </c>
@@ -2851,7 +2270,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="41" ht="14.25" customHeight="1" s="15">
+    <row r="41" ht="14.25" customHeight="1" s="14">
       <c r="A41" s="0" t="n">
         <v>2022</v>
       </c>
@@ -2859,7 +2278,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="42" ht="14.25" customHeight="1" s="15">
+    <row r="42" ht="14.25" customHeight="1" s="14">
       <c r="A42" s="0" t="n">
         <v>2023</v>
       </c>
@@ -2867,7 +2286,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" ht="14.25" customHeight="1" s="15">
+    <row r="43" ht="14.25" customHeight="1" s="14">
       <c r="A43" s="0" t="n">
         <v>2024</v>
       </c>
@@ -2875,7 +2294,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="44" ht="14.25" customHeight="1" s="15">
+    <row r="44" ht="14.25" customHeight="1" s="14">
       <c r="A44" s="0" t="n">
         <v>2025</v>
       </c>
@@ -2903,10 +2322,10 @@
       <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
-    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2921,7 +2340,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="14.25" customHeight="1" s="15">
+    <row r="2" ht="14.25" customHeight="1" s="14">
       <c r="A2" s="0" t="n">
         <v>1991</v>
       </c>
@@ -3165,7 +2584,7 @@
       <c r="A32" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B32" s="13" t="n">
+      <c r="B32" s="12" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3173,7 +2592,7 @@
       <c r="A33" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B33" s="13" t="n">
+      <c r="B33" s="12" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3181,7 +2600,7 @@
       <c r="A34" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B34" s="13" t="n">
+      <c r="B34" s="12" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3189,7 +2608,7 @@
       <c r="A35" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B35" s="13" t="n">
+      <c r="B35" s="12" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3197,7 +2616,7 @@
       <c r="A36" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B36" s="13" t="n">
+      <c r="B36" s="12" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3221,10 +2640,10 @@
       <selection pane="bottomRight" activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
-    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3247,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="15">
+    <row r="3" ht="14.25" customHeight="1" s="14">
       <c r="A3" s="0" t="n">
         <v>1990</v>
       </c>
@@ -3255,7 +2674,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="15">
+    <row r="4" ht="14.25" customHeight="1" s="14">
       <c r="A4" s="0" t="n">
         <v>1991</v>
       </c>
@@ -3263,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="15">
+    <row r="5" ht="14.25" customHeight="1" s="14">
       <c r="A5" s="0" t="n">
         <v>1992</v>
       </c>
@@ -3271,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="15">
+    <row r="6" ht="14.25" customHeight="1" s="14">
       <c r="A6" s="0" t="n">
         <v>1993</v>
       </c>
@@ -3279,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="15">
+    <row r="7" ht="14.25" customHeight="1" s="14">
       <c r="A7" s="0" t="n">
         <v>1994</v>
       </c>
@@ -3287,7 +2706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="15">
+    <row r="8" ht="14.25" customHeight="1" s="14">
       <c r="A8" s="0" t="n">
         <v>1995</v>
       </c>
@@ -3295,7 +2714,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="15">
+    <row r="9" ht="14.25" customHeight="1" s="14">
       <c r="A9" s="0" t="n">
         <v>1996</v>
       </c>
@@ -3303,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="15">
+    <row r="10" ht="14.25" customHeight="1" s="14">
       <c r="A10" s="0" t="n">
         <v>1997</v>
       </c>
@@ -3311,7 +2730,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="15">
+    <row r="11" ht="14.25" customHeight="1" s="14">
       <c r="A11" s="0" t="n">
         <v>1998</v>
       </c>
@@ -3319,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="15">
+    <row r="12" ht="14.25" customHeight="1" s="14">
       <c r="A12" s="0" t="n">
         <v>1999</v>
       </c>
@@ -3327,7 +2746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="15">
+    <row r="13" ht="14.25" customHeight="1" s="14">
       <c r="A13" s="0" t="n">
         <v>2000</v>
       </c>
@@ -3335,7 +2754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="15">
+    <row r="14" ht="14.25" customHeight="1" s="14">
       <c r="A14" s="0" t="n">
         <v>2001</v>
       </c>
@@ -3343,7 +2762,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="15">
+    <row r="15" ht="14.25" customHeight="1" s="14">
       <c r="A15" s="0" t="n">
         <v>2002</v>
       </c>
@@ -3351,7 +2770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="15">
+    <row r="16" ht="14.25" customHeight="1" s="14">
       <c r="A16" s="0" t="n">
         <v>2003</v>
       </c>
@@ -3359,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="15">
+    <row r="17" ht="14.25" customHeight="1" s="14">
       <c r="A17" s="0" t="n">
         <v>2004</v>
       </c>
@@ -3367,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="15">
+    <row r="18" ht="14.25" customHeight="1" s="14">
       <c r="A18" s="0" t="n">
         <v>2005</v>
       </c>
@@ -3375,7 +2794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="15">
+    <row r="19" ht="14.25" customHeight="1" s="14">
       <c r="A19" s="0" t="n">
         <v>2006</v>
       </c>
@@ -3383,7 +2802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="15">
+    <row r="20" ht="14.25" customHeight="1" s="14">
       <c r="A20" s="0" t="n">
         <v>2007</v>
       </c>
@@ -3391,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="15">
+    <row r="21" ht="14.25" customHeight="1" s="14">
       <c r="A21" s="0" t="n">
         <v>2008</v>
       </c>
@@ -3399,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="15">
+    <row r="22" ht="14.25" customHeight="1" s="14">
       <c r="A22" s="0" t="n">
         <v>2009</v>
       </c>
@@ -3407,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="15">
+    <row r="23" ht="14.25" customHeight="1" s="14">
       <c r="A23" s="0" t="n">
         <v>2010</v>
       </c>
@@ -3415,7 +2834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="15">
+    <row r="24" ht="14.25" customHeight="1" s="14">
       <c r="A24" s="0" t="n">
         <v>2011</v>
       </c>
@@ -3423,7 +2842,7 @@
         <v>228.84</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="15">
+    <row r="25" ht="14.25" customHeight="1" s="14">
       <c r="A25" s="0" t="n">
         <v>2012</v>
       </c>
@@ -3431,7 +2850,7 @@
         <v>772.24</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="15">
+    <row r="26" ht="14.25" customHeight="1" s="14">
       <c r="A26" s="0" t="n">
         <v>2013</v>
       </c>
@@ -3439,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="15">
+    <row r="27" ht="14.25" customHeight="1" s="14">
       <c r="A27" s="0" t="n">
         <v>2014</v>
       </c>
@@ -3447,7 +2866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="15">
+    <row r="28" ht="14.25" customHeight="1" s="14">
       <c r="A28" s="0" t="n">
         <v>2015</v>
       </c>
@@ -3455,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="15">
+    <row r="29" ht="14.25" customHeight="1" s="14">
       <c r="A29" s="0" t="n">
         <v>2016</v>
       </c>
@@ -3463,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="15">
+    <row r="30" ht="14.25" customHeight="1" s="14">
       <c r="A30" s="0" t="n">
         <v>2017</v>
       </c>
@@ -3471,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="15">
+    <row r="31" ht="14.25" customHeight="1" s="14">
       <c r="A31" s="0" t="n">
         <v>2018</v>
       </c>
@@ -3479,7 +2898,7 @@
         <v>387.94</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="15">
+    <row r="32" ht="14.25" customHeight="1" s="14">
       <c r="A32" s="0" t="n">
         <v>2019</v>
       </c>
@@ -3487,7 +2906,7 @@
         <v>304.04</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="15">
+    <row r="33" ht="14.25" customHeight="1" s="14">
       <c r="A33" s="0" t="n">
         <v>2020</v>
       </c>
@@ -3508,17 +2927,17 @@
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
-    <col width="8.875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
+    <col width="8.83203125" customWidth="1" style="1" min="2" max="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3793,7 +3212,7 @@
       <c r="A34" s="0" t="n">
         <v>2021</v>
       </c>
-      <c r="B34" s="14" t="n">
+      <c r="B34" s="13" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3801,7 +3220,7 @@
       <c r="A35" s="0" t="n">
         <v>2022</v>
       </c>
-      <c r="B35" s="14" t="n">
+      <c r="B35" s="13" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3809,7 +3228,7 @@
       <c r="A36" s="0" t="n">
         <v>2023</v>
       </c>
-      <c r="B36" s="14" t="n">
+      <c r="B36" s="13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3817,7 +3236,7 @@
       <c r="A37" s="0" t="n">
         <v>2024</v>
       </c>
-      <c r="B37" s="14" t="n">
+      <c r="B37" s="13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -3825,7 +3244,7 @@
       <c r="A38" s="0" t="n">
         <v>2025</v>
       </c>
-      <c r="B38" s="14" t="n">
+      <c r="B38" s="13" t="n">
         <v>50</v>
       </c>
     </row>
@@ -3840,7 +3259,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3862,338 +3281,514 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1984</v>
+        <v>1962</v>
       </c>
       <c r="B2" t="n">
-        <v>2.658102506180137</v>
+        <v>312.4569910492294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1985</v>
+        <v>1963</v>
       </c>
       <c r="B3" t="n">
-        <v>51.56462791670604</v>
+        <v>1107.269632055718</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1986</v>
+        <v>1964</v>
       </c>
       <c r="B4" t="n">
-        <v>22.64998067166655</v>
+        <v>11348.38442886001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1987</v>
+        <v>1965</v>
       </c>
       <c r="B5" t="n">
-        <v>4.811428266468187</v>
+        <v>15476.08604856102</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1988</v>
+        <v>1966</v>
       </c>
       <c r="B6" t="n">
-        <v>7.912486729093207</v>
+        <v>7986.541920018917</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1989</v>
+        <v>1967</v>
       </c>
       <c r="B7" t="n">
-        <v>47.68381211069133</v>
+        <v>11374.52853532804</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1990</v>
+        <v>1968</v>
       </c>
       <c r="B8" t="n">
-        <v>145.3695968927823</v>
+        <v>7478.242357254871</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1991</v>
+        <v>1969</v>
       </c>
       <c r="B9" t="n">
-        <v>70.63470249822946</v>
+        <v>5089.085588330708</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1992</v>
+        <v>1970</v>
       </c>
       <c r="B10" t="n">
-        <v>211.5279920031363</v>
+        <v>10143.5101376996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1993</v>
+        <v>1971</v>
       </c>
       <c r="B11" t="n">
-        <v>53.6688873924312</v>
+        <v>8444.420580113247</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1994</v>
+        <v>1972</v>
       </c>
       <c r="B12" t="n">
-        <v>104.5902204795013</v>
+        <v>3915.284489726725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1995</v>
+        <v>1973</v>
       </c>
       <c r="B13" t="n">
-        <v>188.7210528271173</v>
+        <v>6434.835131826872</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1996</v>
+        <v>1974</v>
       </c>
       <c r="B14" t="n">
-        <v>153.9521441761099</v>
+        <v>12470.56838615167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1997</v>
+        <v>1975</v>
       </c>
       <c r="B15" t="n">
-        <v>128.3020359731516</v>
+        <v>13070.54144733195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1998</v>
+        <v>1976</v>
       </c>
       <c r="B16" t="n">
-        <v>229.6171310662761</v>
+        <v>12402.33594568664</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1999</v>
+        <v>1977</v>
       </c>
       <c r="B17" t="n">
-        <v>333.1035593044238</v>
+        <v>8415.371007246275</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2000</v>
+        <v>1978</v>
       </c>
       <c r="B18" t="n">
-        <v>693.3260489166908</v>
+        <v>5588.916125961819</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2001</v>
+        <v>1979</v>
       </c>
       <c r="B19" t="n">
-        <v>519.6862523292097</v>
+        <v>5526.290019038176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2002</v>
+        <v>1980</v>
       </c>
       <c r="B20" t="n">
-        <v>709.827111832966</v>
+        <v>8674.346243982451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2003</v>
+        <v>1981</v>
       </c>
       <c r="B21" t="n">
-        <v>1041.58377859409</v>
+        <v>10459.50589986997</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2004</v>
+        <v>1982</v>
       </c>
       <c r="B22" t="n">
-        <v>2627.633951838181</v>
+        <v>13587.2141814953</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2005</v>
+        <v>1983</v>
       </c>
       <c r="B23" t="n">
-        <v>1923.577231347775</v>
+        <v>29892.90935500385</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2006</v>
+        <v>1984</v>
       </c>
       <c r="B24" t="n">
-        <v>1188.171855750842</v>
+        <v>36123.03121838408</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="B25" t="n">
-        <v>992.5861124595016</v>
+        <v>30570.74819005323</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2008</v>
+        <v>1986</v>
       </c>
       <c r="B26" t="n">
-        <v>834.1250927859189</v>
+        <v>22227.61532627743</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2009</v>
+        <v>1987</v>
       </c>
       <c r="B27" t="n">
-        <v>1519.817593761609</v>
+        <v>15663.66392328499</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2010</v>
+        <v>1988</v>
       </c>
       <c r="B28" t="n">
-        <v>790.411413855616</v>
+        <v>13550.84928846547</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2011</v>
+        <v>1989</v>
       </c>
       <c r="B29" t="n">
-        <v>2387.253700297832</v>
+        <v>12881.37782650927</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2012</v>
+        <v>1990</v>
       </c>
       <c r="B30" t="n">
-        <v>3319.30777296423</v>
+        <v>11939.61447097485</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2013</v>
+        <v>1991</v>
       </c>
       <c r="B31" t="n">
-        <v>874.4672177199157</v>
+        <v>11287.70401729364</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2014</v>
+        <v>1992</v>
       </c>
       <c r="B32" t="n">
-        <v>706.4447781346622</v>
+        <v>11346.05265003269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2015</v>
+        <v>1993</v>
       </c>
       <c r="B33" t="n">
-        <v>516.8227308947437</v>
+        <v>13000.30312295102</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2016</v>
+        <v>1994</v>
       </c>
       <c r="B34" t="n">
-        <v>224.383078632301</v>
+        <v>14936.35926041752</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2017</v>
+        <v>1995</v>
       </c>
       <c r="B35" t="n">
-        <v>512.1486830998771</v>
+        <v>13806.24291794065</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2018</v>
+        <v>1996</v>
       </c>
       <c r="B36" t="n">
-        <v>574.9059407386593</v>
+        <v>15208.11597993744</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2019</v>
+        <v>1997</v>
       </c>
       <c r="B37" t="n">
-        <v>1413.651744500197</v>
+        <v>15507.04902069308</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2020</v>
+        <v>1998</v>
       </c>
       <c r="B38" t="n">
-        <v>1802.821682667891</v>
+        <v>17511.29543093492</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2021</v>
+        <v>1999</v>
       </c>
       <c r="B39" t="n">
-        <v>1605.648698932538</v>
+        <v>19785.07136006669</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2022</v>
+        <v>2000</v>
       </c>
       <c r="B40" t="n">
-        <v>1430.696093654705</v>
+        <v>20483.84472241866</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2023</v>
+        <v>2001</v>
       </c>
       <c r="B41" t="n">
-        <v>1485.548525218145</v>
+        <v>21097.15430020235</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2024</v>
+        <v>2002</v>
       </c>
       <c r="B42" t="n">
-        <v>1500.114415997918</v>
+        <v>21710.34297735656</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B43" t="n">
+        <v>29834.59795724447</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B44" t="n">
+        <v>30966.18993652627</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B45" t="n">
+        <v>22206.20475458962</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B46" t="n">
+        <v>19965.93299362841</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B47" t="n">
+        <v>24356.88794566258</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B48" t="n">
+        <v>28179.89793389919</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B49" t="n">
+        <v>26898.41446262129</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B50" t="n">
+        <v>25378.06438576451</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B51" t="n">
+        <v>26186.48221254002</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B52" t="n">
+        <v>24801.60988038441</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B53" t="n">
+        <v>19709.75025595631</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B54" t="n">
+        <v>17735.67413484812</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B55" t="n">
+        <v>16801.70783949634</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B56" t="n">
+        <v>17921.64075144427</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20456.83251269994</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B58" t="n">
+        <v>21558.54321963046</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22151.62228353007</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B60" t="n">
+        <v>19323.73157255628</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B61" t="n">
+        <v>18118.77775357593</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B62" t="n">
+        <v>19214.00014065433</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B63" t="n">
+        <v>19853.89796522714</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B64" t="n">
+        <v>20007.55196483308</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
         <v>2025</v>
       </c>
-      <c r="B43" t="n">
-        <v>1500.560732260023</v>
+      <c r="B65" t="n">
+        <v>20031.20668589932</v>
       </c>
     </row>
   </sheetData>
@@ -4216,9 +3811,9 @@
       <selection pane="bottomRight" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4589,9 +4184,9 @@
       <selection pane="bottomRight" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4810,9 +4405,9 @@
       <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5067,7 +4662,7 @@
       <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -5613,7 +5208,7 @@
       <selection pane="bottomRight" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="inlineStr">
@@ -5831,9 +5426,9 @@
       <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6180,9 +5775,9 @@
       <selection pane="bottomRight" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6205,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="15">
+    <row r="3" ht="14.25" customHeight="1" s="14">
       <c r="A3" s="0" t="n">
         <v>1993</v>
       </c>
@@ -6213,7 +5808,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="15">
+    <row r="4" ht="14.25" customHeight="1" s="14">
       <c r="A4" s="0" t="n">
         <v>1994</v>
       </c>
@@ -6221,7 +5816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="15">
+    <row r="5" ht="14.25" customHeight="1" s="14">
       <c r="A5" s="0" t="n">
         <v>1995</v>
       </c>
@@ -6229,7 +5824,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="15">
+    <row r="6" ht="14.25" customHeight="1" s="14">
       <c r="A6" s="0" t="n">
         <v>1996</v>
       </c>
@@ -6237,7 +5832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="15">
+    <row r="7" ht="14.25" customHeight="1" s="14">
       <c r="A7" s="0" t="n">
         <v>1997</v>
       </c>
@@ -6245,7 +5840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="15">
+    <row r="8" ht="14.25" customHeight="1" s="14">
       <c r="A8" s="0" t="n">
         <v>1998</v>
       </c>
@@ -6253,7 +5848,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="15">
+    <row r="9" ht="14.25" customHeight="1" s="14">
       <c r="A9" s="0" t="n">
         <v>1999</v>
       </c>
@@ -6261,7 +5856,7 @@
         <v>8107</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="15">
+    <row r="10" ht="14.25" customHeight="1" s="14">
       <c r="A10" s="0" t="n">
         <v>2000</v>
       </c>
@@ -6269,7 +5864,7 @@
         <v>4883</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="15">
+    <row r="11" ht="14.25" customHeight="1" s="14">
       <c r="A11" s="0" t="n">
         <v>2001</v>
       </c>
@@ -6277,7 +5872,7 @@
         <v>3955</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="15">
+    <row r="12" ht="14.25" customHeight="1" s="14">
       <c r="A12" s="0" t="n">
         <v>2002</v>
       </c>
@@ -6285,7 +5880,7 @@
         <v>5405</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="15">
+    <row r="13" ht="14.25" customHeight="1" s="14">
       <c r="A13" s="0" t="n">
         <v>2003</v>
       </c>
@@ -6293,7 +5888,7 @@
         <v>7791</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="15">
+    <row r="14" ht="14.25" customHeight="1" s="14">
       <c r="A14" s="0" t="n">
         <v>2004</v>
       </c>
@@ -6301,7 +5896,7 @@
         <v>21374</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="15">
+    <row r="15" ht="14.25" customHeight="1" s="14">
       <c r="A15" s="0" t="n">
         <v>2005</v>
       </c>
@@ -6309,7 +5904,7 @@
         <v>9646.379999999999</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="15">
+    <row r="16" ht="14.25" customHeight="1" s="14">
       <c r="A16" s="0" t="n">
         <v>2006</v>
       </c>
@@ -6317,7 +5912,7 @@
         <v>8045.29</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="15">
+    <row r="17" ht="14.25" customHeight="1" s="14">
       <c r="A17" s="0" t="n">
         <v>2007</v>
       </c>
@@ -6325,7 +5920,7 @@
         <v>9411.15</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="15">
+    <row r="18" ht="14.25" customHeight="1" s="14">
       <c r="A18" s="0" t="n">
         <v>2008</v>
       </c>
@@ -6333,7 +5928,7 @@
         <v>12955.47</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="15">
+    <row r="19" ht="14.25" customHeight="1" s="14">
       <c r="A19" s="0" t="n">
         <v>2009</v>
       </c>
@@ -6341,7 +5936,7 @@
         <v>12483.04</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="15">
+    <row r="20" ht="14.25" customHeight="1" s="14">
       <c r="A20" s="0" t="n">
         <v>2010</v>
       </c>
@@ -6349,7 +5944,7 @@
         <v>9655.799999999999</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="15">
+    <row r="21" ht="14.25" customHeight="1" s="14">
       <c r="A21" s="0" t="n">
         <v>2011</v>
       </c>
@@ -6357,7 +5952,7 @@
         <v>9639.530000000001</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="15">
+    <row r="22" ht="14.25" customHeight="1" s="14">
       <c r="A22" s="0" t="n">
         <v>2012</v>
       </c>
@@ -6365,7 +5960,7 @@
         <v>9551.379999999999</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="15">
+    <row r="23" ht="14.25" customHeight="1" s="14">
       <c r="A23" s="0" t="n">
         <v>2013</v>
       </c>
@@ -6373,7 +5968,7 @@
         <v>2838.24</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="15">
+    <row r="24" ht="14.25" customHeight="1" s="14">
       <c r="A24" s="0" t="n">
         <v>2014</v>
       </c>
@@ -6381,7 +5976,7 @@
         <v>1119.56</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="15">
+    <row r="25" ht="14.25" customHeight="1" s="14">
       <c r="A25" s="0" t="n">
         <v>2015</v>
       </c>
@@ -6389,7 +5984,7 @@
         <v>5315.48</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="15">
+    <row r="26" ht="14.25" customHeight="1" s="14">
       <c r="A26" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6397,7 +5992,7 @@
         <v>1474.87</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="15">
+    <row r="27" ht="14.25" customHeight="1" s="14">
       <c r="A27" s="0" t="n">
         <v>2017</v>
       </c>
@@ -6405,7 +6000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="15">
+    <row r="28" ht="14.25" customHeight="1" s="14">
       <c r="A28" s="0" t="n">
         <v>2018</v>
       </c>
@@ -6413,7 +6008,7 @@
         <v>5050.41</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="15">
+    <row r="29" ht="14.25" customHeight="1" s="14">
       <c r="A29" s="0" t="n">
         <v>2019</v>
       </c>
@@ -6421,7 +6016,7 @@
         <v>4817.11</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="15">
+    <row r="30" ht="14.25" customHeight="1" s="14">
       <c r="A30" s="0" t="n">
         <v>2020</v>
       </c>
@@ -6429,7 +6024,7 @@
         <v>5853.74</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="15">
+    <row r="31" ht="14.25" customHeight="1" s="14">
       <c r="A31" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6437,7 +6032,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="15">
+    <row r="32" ht="14.25" customHeight="1" s="14">
       <c r="A32" s="0" t="n">
         <v>2022</v>
       </c>
@@ -6445,7 +6040,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="15">
+    <row r="33" ht="14.25" customHeight="1" s="14">
       <c r="A33" s="0" t="n">
         <v>2023</v>
       </c>
@@ -6453,7 +6048,7 @@
         <v>8500</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="15">
+    <row r="34" ht="14.25" customHeight="1" s="14">
       <c r="A34" s="0" t="n">
         <v>2024</v>
       </c>
@@ -6461,7 +6056,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="15">
+    <row r="35" ht="14.25" customHeight="1" s="14">
       <c r="A35" s="0" t="n">
         <v>2025</v>
       </c>
@@ -6489,9 +6084,9 @@
       <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col width="5.5" bestFit="1" customWidth="1" style="15" min="1" max="1"/>
+    <col width="5.5" bestFit="1" customWidth="1" style="14" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6514,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" ht="14.25" customHeight="1" s="15">
+    <row r="3" ht="14.25" customHeight="1" s="14">
       <c r="A3" s="0" t="n">
         <v>1992</v>
       </c>
@@ -6522,7 +6117,7 @@
         <v>196.22</v>
       </c>
     </row>
-    <row r="4" ht="14.25" customHeight="1" s="15">
+    <row r="4" ht="14.25" customHeight="1" s="14">
       <c r="A4" s="0" t="n">
         <v>1993</v>
       </c>
@@ -6530,7 +6125,7 @@
         <v>12.31</v>
       </c>
     </row>
-    <row r="5" ht="14.25" customHeight="1" s="15">
+    <row r="5" ht="14.25" customHeight="1" s="14">
       <c r="A5" s="0" t="n">
         <v>1994</v>
       </c>
@@ -6538,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="14.25" customHeight="1" s="15">
+    <row r="6" ht="14.25" customHeight="1" s="14">
       <c r="A6" s="0" t="n">
         <v>1995</v>
       </c>
@@ -6546,7 +6141,7 @@
         <v>12.97</v>
       </c>
     </row>
-    <row r="7" ht="14.25" customHeight="1" s="15">
+    <row r="7" ht="14.25" customHeight="1" s="14">
       <c r="A7" s="0" t="n">
         <v>1996</v>
       </c>
@@ -6554,7 +6149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="14.25" customHeight="1" s="15">
+    <row r="8" ht="14.25" customHeight="1" s="14">
       <c r="A8" s="0" t="n">
         <v>1997</v>
       </c>
@@ -6562,7 +6157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="14.25" customHeight="1" s="15">
+    <row r="9" ht="14.25" customHeight="1" s="14">
       <c r="A9" s="0" t="n">
         <v>1998</v>
       </c>
@@ -6570,7 +6165,7 @@
         <v>28.64</v>
       </c>
     </row>
-    <row r="10" ht="14.25" customHeight="1" s="15">
+    <row r="10" ht="14.25" customHeight="1" s="14">
       <c r="A10" s="0" t="n">
         <v>1999</v>
       </c>
@@ -6578,7 +6173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="14.25" customHeight="1" s="15">
+    <row r="11" ht="14.25" customHeight="1" s="14">
       <c r="A11" s="0" t="n">
         <v>2000</v>
       </c>
@@ -6586,7 +6181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1" s="15">
+    <row r="12" ht="14.25" customHeight="1" s="14">
       <c r="A12" s="0" t="n">
         <v>2001</v>
       </c>
@@ -6594,7 +6189,7 @@
         <v>49.35</v>
       </c>
     </row>
-    <row r="13" ht="14.25" customHeight="1" s="15">
+    <row r="13" ht="14.25" customHeight="1" s="14">
       <c r="A13" s="0" t="n">
         <v>2002</v>
       </c>
@@ -6602,7 +6197,7 @@
         <v>12.07</v>
       </c>
     </row>
-    <row r="14" ht="14.25" customHeight="1" s="15">
+    <row r="14" ht="14.25" customHeight="1" s="14">
       <c r="A14" s="0" t="n">
         <v>2003</v>
       </c>
@@ -6610,7 +6205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" ht="14.25" customHeight="1" s="15">
+    <row r="15" ht="14.25" customHeight="1" s="14">
       <c r="A15" s="0" t="n">
         <v>2004</v>
       </c>
@@ -6618,7 +6213,7 @@
         <v>183.98</v>
       </c>
     </row>
-    <row r="16" ht="14.25" customHeight="1" s="15">
+    <row r="16" ht="14.25" customHeight="1" s="14">
       <c r="A16" s="0" t="n">
         <v>2005</v>
       </c>
@@ -6626,7 +6221,7 @@
         <v>21.03</v>
       </c>
     </row>
-    <row r="17" ht="14.25" customHeight="1" s="15">
+    <row r="17" ht="14.25" customHeight="1" s="14">
       <c r="A17" s="0" t="n">
         <v>2006</v>
       </c>
@@ -6634,7 +6229,7 @@
         <v>90.42</v>
       </c>
     </row>
-    <row r="18" ht="14.25" customHeight="1" s="15">
+    <row r="18" ht="14.25" customHeight="1" s="14">
       <c r="A18" s="0" t="n">
         <v>2007</v>
       </c>
@@ -6642,7 +6237,7 @@
         <v>36.29</v>
       </c>
     </row>
-    <row r="19" ht="14.25" customHeight="1" s="15">
+    <row r="19" ht="14.25" customHeight="1" s="14">
       <c r="A19" s="0" t="n">
         <v>2008</v>
       </c>
@@ -6650,7 +6245,7 @@
         <v>16.03</v>
       </c>
     </row>
-    <row r="20" ht="14.25" customHeight="1" s="15">
+    <row r="20" ht="14.25" customHeight="1" s="14">
       <c r="A20" s="0" t="n">
         <v>2009</v>
       </c>
@@ -6658,7 +6253,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="21" ht="14.25" customHeight="1" s="15">
+    <row r="21" ht="14.25" customHeight="1" s="14">
       <c r="A21" s="0" t="n">
         <v>2010</v>
       </c>
@@ -6666,7 +6261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" ht="14.25" customHeight="1" s="15">
+    <row r="22" ht="14.25" customHeight="1" s="14">
       <c r="A22" s="0" t="n">
         <v>2011</v>
       </c>
@@ -6674,7 +6269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" ht="14.25" customHeight="1" s="15">
+    <row r="23" ht="14.25" customHeight="1" s="14">
       <c r="A23" s="0" t="n">
         <v>2012</v>
       </c>
@@ -6682,7 +6277,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="24" ht="14.25" customHeight="1" s="15">
+    <row r="24" ht="14.25" customHeight="1" s="14">
       <c r="A24" s="0" t="n">
         <v>2013</v>
       </c>
@@ -6690,7 +6285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" ht="14.25" customHeight="1" s="15">
+    <row r="25" ht="14.25" customHeight="1" s="14">
       <c r="A25" s="0" t="n">
         <v>2014</v>
       </c>
@@ -6698,7 +6293,7 @@
         <v>18.78</v>
       </c>
     </row>
-    <row r="26" ht="14.25" customHeight="1" s="15">
+    <row r="26" ht="14.25" customHeight="1" s="14">
       <c r="A26" s="0" t="n">
         <v>2015</v>
       </c>
@@ -6706,7 +6301,7 @@
         <v>18.92</v>
       </c>
     </row>
-    <row r="27" ht="14.25" customHeight="1" s="15">
+    <row r="27" ht="14.25" customHeight="1" s="14">
       <c r="A27" s="0" t="n">
         <v>2016</v>
       </c>
@@ -6714,7 +6309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" ht="14.25" customHeight="1" s="15">
+    <row r="28" ht="14.25" customHeight="1" s="14">
       <c r="A28" s="0" t="n">
         <v>2017</v>
       </c>
@@ -6722,7 +6317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" ht="14.25" customHeight="1" s="15">
+    <row r="29" ht="14.25" customHeight="1" s="14">
       <c r="A29" s="0" t="n">
         <v>2018</v>
       </c>
@@ -6730,7 +6325,7 @@
         <v>41.85</v>
       </c>
     </row>
-    <row r="30" ht="14.25" customHeight="1" s="15">
+    <row r="30" ht="14.25" customHeight="1" s="14">
       <c r="A30" s="0" t="n">
         <v>2019</v>
       </c>
@@ -6738,7 +6333,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="31" ht="14.25" customHeight="1" s="15">
+    <row r="31" ht="14.25" customHeight="1" s="14">
       <c r="A31" s="0" t="n">
         <v>2020</v>
       </c>
@@ -6746,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" ht="14.25" customHeight="1" s="15">
+    <row r="32" ht="14.25" customHeight="1" s="14">
       <c r="A32" s="0" t="n">
         <v>2021</v>
       </c>
@@ -6754,7 +6349,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" ht="14.25" customHeight="1" s="15">
+    <row r="33" ht="14.25" customHeight="1" s="14">
       <c r="A33" s="0" t="n">
         <v>2022</v>
       </c>
@@ -6762,7 +6357,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" ht="14.25" customHeight="1" s="15">
+    <row r="34" ht="14.25" customHeight="1" s="14">
       <c r="A34" s="0" t="n">
         <v>2023</v>
       </c>
@@ -6770,7 +6365,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" ht="14.25" customHeight="1" s="15">
+    <row r="35" ht="14.25" customHeight="1" s="14">
       <c r="A35" s="0" t="n">
         <v>2024</v>
       </c>
@@ -6778,7 +6373,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="14.25" customHeight="1" s="15">
+    <row r="36" ht="14.25" customHeight="1" s="14">
       <c r="A36" s="0" t="n">
         <v>2025</v>
       </c>
